--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_17_33.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_17_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>996422.72122653</v>
+        <v>992587.4050748756</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>33315485.83212408</v>
+        <v>33315485.83212409</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6051961.679838834</v>
+        <v>6051961.679838835</v>
       </c>
     </row>
     <row r="9">
@@ -1226,58 +1226,58 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>36.39025468426209</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="H9" t="n">
-        <v>40.6378963153706</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" t="n">
+      <c r="W9" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="T9" t="n">
-        <v>37.06736141641883</v>
-      </c>
-      <c r="U9" t="n">
-        <v>0</v>
-      </c>
-      <c r="V9" t="n">
-        <v>0</v>
-      </c>
-      <c r="W9" t="n">
-        <v>0</v>
-      </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1299,16 +1299,16 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>17.8422975499833</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1341,16 +1341,16 @@
         <v>18.54795713427877</v>
       </c>
       <c r="S10" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>17.8422975499833</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1381,13 +1381,13 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>80.08806364077761</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>395.49929442858</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>266.9386168967821</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>39.87097519686765</v>
       </c>
       <c r="T11" t="n">
-        <v>209.616899433655</v>
+        <v>127.2892075848181</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.4793149654022</v>
       </c>
       <c r="V11" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>44.09163721489042</v>
+        <v>44.09163721489043</v>
       </c>
       <c r="T12" t="n">
         <v>124.8125887466708</v>
@@ -1530,25 +1530,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>69.10459230027176</v>
       </c>
       <c r="D13" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>140.9436567636104</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>130.9872392357504</v>
       </c>
       <c r="I13" t="n">
-        <v>62.35142611526319</v>
+        <v>62.3514261152632</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1593,7 +1593,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
         <v>225.1454739790328</v>
@@ -1609,7 +1609,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
         <v>431.5506869772999</v>
@@ -1618,13 +1618,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>412.483650034188</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>266.9386168967821</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1669,7 +1669,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>400.806900043077</v>
+        <v>222.8793635907521</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>44.09163721489043</v>
+        <v>44.09163721489042</v>
       </c>
       <c r="T15" t="n">
         <v>124.8125887466708</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>98.81369041763236</v>
+        <v>66.3289216104354</v>
       </c>
       <c r="G16" t="n">
-        <v>163.0900140992919</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>130.9872392357504</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>62.35142611526319</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1821,7 +1821,7 @@
         <v>239.8087099681002</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>275.6025608416909</v>
       </c>
       <c r="V16" t="n">
         <v>284.0859530482738</v>
@@ -1852,10 +1852,10 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>395.49929442858</v>
@@ -1897,19 +1897,19 @@
         <v>39.87097519686765</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>209.616899433655</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>256.4793149654022</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>283.0904441139667</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>311.1119446113341</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>44.09163721489042</v>
+        <v>44.09163721489043</v>
       </c>
       <c r="T18" t="n">
         <v>124.8125887466708</v>
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
-        <v>157.0491939697459</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>164.2192128704925</v>
@@ -2016,13 +2016,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>163.0900140992919</v>
+        <v>76.38277509545574</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>130.9872392357504</v>
       </c>
       <c r="I19" t="n">
-        <v>62.35142611526319</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2061,10 +2061,10 @@
         <v>275.6025608416909</v>
       </c>
       <c r="V19" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X19" t="n">
         <v>242.9378371199217</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
         <v>433.7610480884109</v>
@@ -2095,7 +2095,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
-        <v>395.49929442858</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2149,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>186.3708497276835</v>
+        <v>159.8335693762053</v>
       </c>
     </row>
     <row r="21">
@@ -2238,25 +2238,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>189.9004325317972</v>
+        <v>150.2243903102034</v>
       </c>
       <c r="C22" t="n">
-        <v>30.12225765063989</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>163.0900140992919</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>130.9872392357504</v>
       </c>
       <c r="I22" t="n">
         <v>62.3514261152632</v>
@@ -2307,7 +2307,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y22" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2317,25 +2317,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>366.6965554754188</v>
+        <v>156.8312616994259</v>
       </c>
       <c r="C23" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>395.49929442858</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>266.9386168967821</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,19 +2368,19 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>39.87097519686765</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>209.616899433655</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>256.4793149654022</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X23" t="n">
         <v>414.9510387864824</v>
@@ -2557,16 +2557,16 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D26" t="n">
-        <v>419.3101004233491</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>395.49929442858</v>
@@ -2611,7 +2611,7 @@
         <v>209.616899433655</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>256.4793149654022</v>
       </c>
       <c r="V26" t="n">
         <v>358.9907805655117</v>
@@ -2620,10 +2620,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>167.1444512712257</v>
       </c>
     </row>
     <row r="27">
@@ -2803,10 +2803,10 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>395.49929442858</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2845,22 +2845,22 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>140.3995183750526</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>256.4793149654022</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W29" t="n">
-        <v>400.806900043077</v>
+        <v>23.81016555789923</v>
       </c>
       <c r="X29" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y29" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>433.7610480884109</v>
@@ -3037,13 +3037,13 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E32" t="n">
-        <v>173.1840466897562</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F32" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G32" t="n">
-        <v>395.49929442858</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3082,22 +3082,22 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>209.616899433655</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>256.4793149654022</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>166.1774987309873</v>
       </c>
       <c r="X32" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="33">
@@ -3265,10 +3265,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>422.0365747800587</v>
+        <v>166.9191053697817</v>
       </c>
       <c r="C35" t="n">
-        <v>7.863916433922372</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
         <v>431.5506869772999</v>
@@ -3277,10 +3277,10 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
-        <v>395.49929442858</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3319,7 +3319,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>209.616899433655</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -3331,10 +3331,10 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>44.09163721489043</v>
+        <v>44.09163721489042</v>
       </c>
       <c r="T36" t="n">
         <v>124.8125887466708</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>174.9399834978613</v>
+        <v>70.30479306788854</v>
       </c>
       <c r="G37" t="n">
-        <v>163.0900140992919</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>130.9872392357504</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>62.3514261152632</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,13 +3474,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>142.9168426887021</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>239.8087099681002</v>
       </c>
       <c r="U37" t="n">
-        <v>25.74149367500033</v>
+        <v>275.6025608416909</v>
       </c>
       <c r="V37" t="n">
         <v>284.0859530482738</v>
@@ -3502,19 +3502,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>166.9191053697817</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
-        <v>35.33933769304242</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -3559,19 +3559,19 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>256.4793149654022</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>189.9004325317972</v>
+        <v>36.50663415640467</v>
       </c>
       <c r="C40" t="n">
         <v>170.8360944016073</v>
@@ -3714,7 +3714,7 @@
         <v>142.9168426887021</v>
       </c>
       <c r="T40" t="n">
-        <v>104.2072747335964</v>
+        <v>239.8087099681002</v>
       </c>
       <c r="U40" t="n">
         <v>275.6025608416909</v>
@@ -3726,10 +3726,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3739,25 +3739,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>253.4041017560585</v>
       </c>
       <c r="C41" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>395.49929442858</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>266.9386168967821</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>39.87097519686765</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>209.616899433655</v>
       </c>
       <c r="U41" t="n">
-        <v>256.4793149654022</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>358.9907805655117</v>
@@ -3805,10 +3805,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>380.8616156575895</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3900,25 +3900,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
-        <v>170.8360944016073</v>
+        <v>78.05087337020397</v>
       </c>
       <c r="D43" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>163.0900140992919</v>
       </c>
       <c r="H43" t="n">
-        <v>130.9872392357504</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>62.35142611526319</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,10 +3948,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>142.9168426887021</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>192.1239091892149</v>
+        <v>239.8087099681002</v>
       </c>
       <c r="U43" t="n">
         <v>275.6025608416909</v>
@@ -3966,7 +3966,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="44">
@@ -3976,25 +3976,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>395.49929442858</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>256.777867693862</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4030,16 +4030,16 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>209.616899433655</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>256.4793149654022</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>186.3708497276835</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -4137,7 +4137,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
         <v>164.2192128704925</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>142.9168426887021</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>239.8087099681002</v>
@@ -4194,16 +4194,16 @@
         <v>275.6025608416909</v>
       </c>
       <c r="V46" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
-        <v>242.9378371199217</v>
+        <v>65.95992028791716</v>
       </c>
       <c r="Y46" t="n">
-        <v>61.306996181231</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
   </sheetData>
@@ -4859,46 +4859,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>86.08590667097184</v>
+        <v>40.06303325820834</v>
       </c>
       <c r="C9" t="n">
-        <v>86.08590667097184</v>
+        <v>40.06303325820834</v>
       </c>
       <c r="D9" t="n">
-        <v>86.08590667097184</v>
+        <v>40.06303325820834</v>
       </c>
       <c r="E9" t="n">
-        <v>86.08590667097184</v>
+        <v>40.06303325820834</v>
       </c>
       <c r="F9" t="n">
-        <v>86.08590667097184</v>
+        <v>40.06303325820834</v>
       </c>
       <c r="G9" t="n">
-        <v>44.35358036033816</v>
+        <v>40.06303325820834</v>
       </c>
       <c r="H9" t="n">
         <v>3.305200243802188</v>
       </c>
       <c r="I9" t="n">
-        <v>5.706527910441171</v>
+        <v>31.77020107089877</v>
       </c>
       <c r="J9" t="n">
-        <v>12.29595456866669</v>
+        <v>38.35962772912429</v>
       </c>
       <c r="K9" t="n">
-        <v>43.57535515602684</v>
+        <v>49.62200743646791</v>
       </c>
       <c r="L9" t="n">
-        <v>58.71901453653167</v>
+        <v>86.30252310133811</v>
       </c>
       <c r="M9" t="n">
-        <v>76.39095075331308</v>
+        <v>103.9744593181195</v>
       </c>
       <c r="N9" t="n">
-        <v>94.5306105372653</v>
+        <v>122.1141191020718</v>
       </c>
       <c r="O9" t="n">
-        <v>111.1248553693882</v>
+        <v>138.7083639341947</v>
       </c>
       <c r="P9" t="n">
         <v>152.0267083864403</v>
@@ -4910,25 +4910,25 @@
         <v>165.2600121901094</v>
       </c>
       <c r="S9" t="n">
+        <v>165.2600121901094</v>
+      </c>
+      <c r="T9" t="n">
+        <v>165.2600121901094</v>
+      </c>
+      <c r="U9" t="n">
+        <v>165.2600121901094</v>
+      </c>
+      <c r="V9" t="n">
         <v>123.5276858794757</v>
       </c>
-      <c r="T9" t="n">
-        <v>86.08590667097184</v>
-      </c>
-      <c r="U9" t="n">
-        <v>86.08590667097184</v>
-      </c>
-      <c r="V9" t="n">
-        <v>86.08590667097184</v>
-      </c>
       <c r="W9" t="n">
-        <v>86.08590667097184</v>
+        <v>81.79535956884203</v>
       </c>
       <c r="X9" t="n">
-        <v>86.08590667097184</v>
+        <v>40.06303325820834</v>
       </c>
       <c r="Y9" t="n">
-        <v>86.08590667097184</v>
+        <v>40.06303325820834</v>
       </c>
     </row>
     <row r="10">
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3.305200243802188</v>
+        <v>146.5247019534642</v>
       </c>
       <c r="C10" t="n">
-        <v>3.305200243802188</v>
+        <v>146.5247019534642</v>
       </c>
       <c r="D10" t="n">
-        <v>3.305200243802188</v>
+        <v>146.5247019534642</v>
       </c>
       <c r="E10" t="n">
-        <v>3.305200243802188</v>
+        <v>128.5021791757032</v>
       </c>
       <c r="F10" t="n">
-        <v>3.305200243802188</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="G10" t="n">
-        <v>3.305200243802188</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="H10" t="n">
         <v>3.305200243802188</v>
@@ -4962,25 +4962,25 @@
         <v>3.305200243802188</v>
       </c>
       <c r="J10" t="n">
-        <v>7.439194768028656</v>
+        <v>44.20705326085427</v>
       </c>
       <c r="K10" t="n">
-        <v>48.34104778508073</v>
+        <v>51.00047617709629</v>
       </c>
       <c r="L10" t="n">
-        <v>89.24290080213279</v>
+        <v>90.90772746153318</v>
       </c>
       <c r="M10" t="n">
-        <v>102.2492353911842</v>
+        <v>100.0735327310763</v>
       </c>
       <c r="N10" t="n">
-        <v>111.1970982979997</v>
+        <v>109.0213956378918</v>
       </c>
       <c r="O10" t="n">
-        <v>119.4618979460225</v>
+        <v>117.2861952859146</v>
       </c>
       <c r="P10" t="n">
-        <v>160.3637509630746</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="Q10" t="n">
         <v>165.2600121901094</v>
@@ -4989,25 +4989,25 @@
         <v>146.5247019534642</v>
       </c>
       <c r="S10" t="n">
-        <v>104.7923756428305</v>
+        <v>146.5247019534642</v>
       </c>
       <c r="T10" t="n">
-        <v>63.06004933219679</v>
+        <v>146.5247019534642</v>
       </c>
       <c r="U10" t="n">
-        <v>21.3277230215631</v>
+        <v>146.5247019534642</v>
       </c>
       <c r="V10" t="n">
-        <v>3.305200243802188</v>
+        <v>146.5247019534642</v>
       </c>
       <c r="W10" t="n">
-        <v>3.305200243802188</v>
+        <v>146.5247019534642</v>
       </c>
       <c r="X10" t="n">
-        <v>3.305200243802188</v>
+        <v>146.5247019534642</v>
       </c>
       <c r="Y10" t="n">
-        <v>3.305200243802188</v>
+        <v>146.5247019534642</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>564.2240035497</v>
+        <v>1580.323602518861</v>
       </c>
       <c r="C11" t="n">
-        <v>564.2240035497</v>
+        <v>1580.323602518861</v>
       </c>
       <c r="D11" t="n">
-        <v>128.3142187241445</v>
+        <v>1144.413817693305</v>
       </c>
       <c r="E11" t="n">
-        <v>128.3142187241445</v>
+        <v>1144.413817693305</v>
       </c>
       <c r="F11" t="n">
-        <v>47.41718474356106</v>
+        <v>716.5463881025128</v>
       </c>
       <c r="G11" t="n">
-        <v>47.41718474356106</v>
+        <v>317.0521513059672</v>
       </c>
       <c r="H11" t="n">
-        <v>47.41718474356106</v>
+        <v>47.41718474356104</v>
       </c>
       <c r="I11" t="n">
-        <v>118.9365917639705</v>
+        <v>118.9365917639703</v>
       </c>
       <c r="J11" t="n">
-        <v>277.2866545754686</v>
+        <v>277.2866545754682</v>
       </c>
       <c r="K11" t="n">
-        <v>514.6123507107058</v>
+        <v>514.6123507107052</v>
       </c>
       <c r="L11" t="n">
-        <v>809.0358625400462</v>
+        <v>809.0358625400452</v>
       </c>
       <c r="M11" t="n">
-        <v>1136.638748787554</v>
+        <v>1136.638748787553</v>
       </c>
       <c r="N11" t="n">
-        <v>1469.542592232819</v>
+        <v>1469.542592232818</v>
       </c>
       <c r="O11" t="n">
-        <v>1783.894251556588</v>
+        <v>1783.894251556587</v>
       </c>
       <c r="P11" t="n">
-        <v>2052.18612000675</v>
+        <v>2052.186120006749</v>
       </c>
       <c r="Q11" t="n">
-        <v>2253.662139923805</v>
+        <v>2253.662139923804</v>
       </c>
       <c r="R11" t="n">
-        <v>2370.859237178053</v>
+        <v>2370.859237178052</v>
       </c>
       <c r="S11" t="n">
-        <v>2370.859237178053</v>
+        <v>2330.585524857984</v>
       </c>
       <c r="T11" t="n">
-        <v>2159.124995325876</v>
+        <v>2202.010567701602</v>
       </c>
       <c r="U11" t="n">
-        <v>2159.124995325876</v>
+        <v>1942.940552585034</v>
       </c>
       <c r="V11" t="n">
-        <v>1796.508045259703</v>
+        <v>1580.323602518861</v>
       </c>
       <c r="W11" t="n">
-        <v>1391.652590670736</v>
+        <v>1580.323602518861</v>
       </c>
       <c r="X11" t="n">
-        <v>972.5101272500466</v>
+        <v>1580.323602518861</v>
       </c>
       <c r="Y11" t="n">
-        <v>564.2240035497</v>
+        <v>1580.323602518861</v>
       </c>
     </row>
     <row r="12">
@@ -5096,40 +5096,40 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>542.7337265374152</v>
+        <v>542.7337265374151</v>
       </c>
       <c r="C12" t="n">
-        <v>436.2772653740575</v>
+        <v>436.2772653740574</v>
       </c>
       <c r="D12" t="n">
-        <v>341.1869765206108</v>
+        <v>341.1869765206107</v>
       </c>
       <c r="E12" t="n">
-        <v>247.0665618475645</v>
+        <v>247.0665618475644</v>
       </c>
       <c r="F12" t="n">
-        <v>163.6827234637261</v>
+        <v>163.682723463726</v>
       </c>
       <c r="G12" t="n">
-        <v>79.31614662250912</v>
+        <v>79.31614662250909</v>
       </c>
       <c r="H12" t="n">
-        <v>47.41718474356106</v>
+        <v>47.41718474356104</v>
       </c>
       <c r="I12" t="n">
-        <v>81.78656726718471</v>
+        <v>81.78656726718468</v>
       </c>
       <c r="J12" t="n">
-        <v>168.6788003306395</v>
+        <v>176.0987798711818</v>
       </c>
       <c r="K12" t="n">
-        <v>329.8733934990793</v>
+        <v>337.2933730396215</v>
       </c>
       <c r="L12" t="n">
-        <v>546.61941666239</v>
+        <v>546.6194166623901</v>
       </c>
       <c r="M12" t="n">
-        <v>799.5518024445222</v>
+        <v>799.5518024445223</v>
       </c>
       <c r="N12" t="n">
         <v>1059.178555854504</v>
@@ -5162,10 +5162,10 @@
         <v>945.3908425990776</v>
       </c>
       <c r="X12" t="n">
-        <v>790.5234068379576</v>
+        <v>790.5234068379575</v>
       </c>
       <c r="Y12" t="n">
-        <v>664.0376276171784</v>
+        <v>664.0376276171783</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>727.6611428071751</v>
+        <v>482.2693881405867</v>
       </c>
       <c r="C13" t="n">
-        <v>727.6611428071751</v>
+        <v>412.4667696554637</v>
       </c>
       <c r="D13" t="n">
-        <v>561.7831500086978</v>
+        <v>412.4667696554637</v>
       </c>
       <c r="E13" t="n">
-        <v>561.7831500086978</v>
+        <v>242.708765906201</v>
       </c>
       <c r="F13" t="n">
-        <v>385.076095970454</v>
+        <v>242.708765906201</v>
       </c>
       <c r="G13" t="n">
-        <v>242.7087659062011</v>
+        <v>242.708765906201</v>
       </c>
       <c r="H13" t="n">
         <v>110.3984232438269</v>
       </c>
       <c r="I13" t="n">
-        <v>47.41718474356106</v>
+        <v>47.41718474356104</v>
       </c>
       <c r="J13" t="n">
         <v>193.1653212310857</v>
       </c>
       <c r="K13" t="n">
-        <v>290.3972625845419</v>
+        <v>565.1557171556774</v>
       </c>
       <c r="L13" t="n">
-        <v>414.8206717312103</v>
+        <v>689.5791263023458</v>
       </c>
       <c r="M13" t="n">
-        <v>1001.608332932778</v>
+        <v>1276.366787503914</v>
       </c>
       <c r="N13" t="n">
-        <v>1571.934841004565</v>
+        <v>1404.434492418055</v>
       </c>
       <c r="O13" t="n">
-        <v>2014.731125184675</v>
+        <v>1942.394995490749</v>
       </c>
       <c r="P13" t="n">
-        <v>2115.949728296286</v>
+        <v>2115.949728296285</v>
       </c>
       <c r="Q13" t="n">
-        <v>2354.221017386493</v>
+        <v>2354.221017386492</v>
       </c>
       <c r="R13" t="n">
-        <v>2370.859237178053</v>
+        <v>2370.859237178052</v>
       </c>
       <c r="S13" t="n">
-        <v>2226.498790017748</v>
+        <v>2226.498790017747</v>
       </c>
       <c r="T13" t="n">
-        <v>1984.267769847949</v>
+        <v>1984.267769847948</v>
       </c>
       <c r="U13" t="n">
-        <v>1705.881344755332</v>
+        <v>1705.881344755331</v>
       </c>
       <c r="V13" t="n">
         <v>1418.925836625762</v>
       </c>
       <c r="W13" t="n">
-        <v>1146.899432212054</v>
+        <v>1146.899432212053</v>
       </c>
       <c r="X13" t="n">
-        <v>1146.899432212054</v>
+        <v>901.5076775454656</v>
       </c>
       <c r="Y13" t="n">
-        <v>919.4797615261623</v>
+        <v>674.0880068595739</v>
       </c>
     </row>
     <row r="14">
@@ -5254,37 +5254,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1603.386832522913</v>
+        <v>1783.11161681819</v>
       </c>
       <c r="C14" t="n">
-        <v>1603.386832522913</v>
+        <v>1344.969144001614</v>
       </c>
       <c r="D14" t="n">
-        <v>1167.477047697357</v>
+        <v>909.0593591760581</v>
       </c>
       <c r="E14" t="n">
-        <v>733.7023028556521</v>
+        <v>475.2846143343533</v>
       </c>
       <c r="F14" t="n">
-        <v>317.0521513059672</v>
+        <v>47.41718474356106</v>
       </c>
       <c r="G14" t="n">
-        <v>317.0521513059672</v>
+        <v>47.41718474356106</v>
       </c>
       <c r="H14" t="n">
         <v>47.41718474356106</v>
       </c>
       <c r="I14" t="n">
-        <v>118.9365917639714</v>
+        <v>118.9365917639705</v>
       </c>
       <c r="J14" t="n">
-        <v>277.2866545754693</v>
+        <v>277.2866545754686</v>
       </c>
       <c r="K14" t="n">
-        <v>514.6123507107062</v>
+        <v>514.6123507107058</v>
       </c>
       <c r="L14" t="n">
-        <v>809.0358625400463</v>
+        <v>809.0358625400459</v>
       </c>
       <c r="M14" t="n">
         <v>1136.638748787554</v>
@@ -5317,13 +5317,13 @@
         <v>2008.242287111879</v>
       </c>
       <c r="W14" t="n">
-        <v>1603.386832522913</v>
+        <v>1783.11161681819</v>
       </c>
       <c r="X14" t="n">
-        <v>1603.386832522913</v>
+        <v>1783.11161681819</v>
       </c>
       <c r="Y14" t="n">
-        <v>1603.386832522913</v>
+        <v>1783.11161681819</v>
       </c>
     </row>
     <row r="15">
@@ -5360,16 +5360,16 @@
         <v>176.0987798711818</v>
       </c>
       <c r="K15" t="n">
-        <v>329.8733934990794</v>
+        <v>337.2933730396216</v>
       </c>
       <c r="L15" t="n">
-        <v>546.6194166623901</v>
+        <v>554.0393962029324</v>
       </c>
       <c r="M15" t="n">
-        <v>799.5518024445223</v>
+        <v>806.9717819850646</v>
       </c>
       <c r="N15" t="n">
-        <v>1059.178555854504</v>
+        <v>1066.598535395047</v>
       </c>
       <c r="O15" t="n">
         <v>1296.686313021258</v>
@@ -5412,46 +5412,46 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>952.4744319521919</v>
+        <v>482.2693881405876</v>
       </c>
       <c r="C16" t="n">
-        <v>779.9127204354169</v>
+        <v>309.7076766238126</v>
       </c>
       <c r="D16" t="n">
-        <v>614.0347276369396</v>
+        <v>309.7076766238126</v>
       </c>
       <c r="E16" t="n">
-        <v>444.2767238876768</v>
+        <v>309.7076766238126</v>
       </c>
       <c r="F16" t="n">
-        <v>344.4649153850179</v>
+        <v>242.7087659062011</v>
       </c>
       <c r="G16" t="n">
-        <v>179.7275274059352</v>
+        <v>242.7087659062011</v>
       </c>
       <c r="H16" t="n">
-        <v>47.41718474356106</v>
+        <v>110.3984232438269</v>
       </c>
       <c r="I16" t="n">
         <v>47.41718474356106</v>
       </c>
       <c r="J16" t="n">
-        <v>106.5856360663958</v>
+        <v>193.1653212310857</v>
       </c>
       <c r="K16" t="n">
-        <v>219.2819650816427</v>
+        <v>565.1557171556774</v>
       </c>
       <c r="L16" t="n">
-        <v>761.9152559962721</v>
+        <v>1107.789008070307</v>
       </c>
       <c r="M16" t="n">
-        <v>1348.70291719784</v>
+        <v>1238.97604756621</v>
       </c>
       <c r="N16" t="n">
-        <v>1476.770622111982</v>
+        <v>1367.043752480352</v>
       </c>
       <c r="O16" t="n">
-        <v>2014.731125184675</v>
+        <v>1667.224231214333</v>
       </c>
       <c r="P16" t="n">
         <v>2115.949728296286</v>
@@ -5469,19 +5469,19 @@
         <v>1984.267769847949</v>
       </c>
       <c r="U16" t="n">
-        <v>1984.267769847949</v>
+        <v>1705.881344755332</v>
       </c>
       <c r="V16" t="n">
-        <v>1697.31226171838</v>
+        <v>1418.925836625762</v>
       </c>
       <c r="W16" t="n">
-        <v>1425.285857304671</v>
+        <v>1146.899432212054</v>
       </c>
       <c r="X16" t="n">
-        <v>1179.894102638084</v>
+        <v>901.5076775454665</v>
       </c>
       <c r="Y16" t="n">
-        <v>952.4744319521919</v>
+        <v>674.0880068595748</v>
       </c>
     </row>
     <row r="17">
@@ -5491,16 +5491,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2016.331035351586</v>
+        <v>1154.688860919089</v>
       </c>
       <c r="C17" t="n">
-        <v>1578.18856253501</v>
+        <v>716.5463881025128</v>
       </c>
       <c r="D17" t="n">
-        <v>1578.18856253501</v>
+        <v>716.5463881025128</v>
       </c>
       <c r="E17" t="n">
-        <v>1144.413817693305</v>
+        <v>716.5463881025128</v>
       </c>
       <c r="F17" t="n">
         <v>716.5463881025128</v>
@@ -5512,16 +5512,16 @@
         <v>47.41718474356106</v>
       </c>
       <c r="I17" t="n">
-        <v>118.9365917639705</v>
+        <v>118.9365917639708</v>
       </c>
       <c r="J17" t="n">
         <v>277.2866545754686</v>
       </c>
       <c r="K17" t="n">
-        <v>514.6123507107058</v>
+        <v>514.6123507107056</v>
       </c>
       <c r="L17" t="n">
-        <v>809.0358625400462</v>
+        <v>809.0358625400456</v>
       </c>
       <c r="M17" t="n">
         <v>1136.638748787554</v>
@@ -5545,22 +5545,22 @@
         <v>2330.585524857985</v>
       </c>
       <c r="T17" t="n">
-        <v>2330.585524857985</v>
+        <v>2118.851283005808</v>
       </c>
       <c r="U17" t="n">
-        <v>2330.585524857985</v>
+        <v>1859.78126788924</v>
       </c>
       <c r="V17" t="n">
-        <v>2330.585524857985</v>
+        <v>1573.831324339779</v>
       </c>
       <c r="W17" t="n">
-        <v>2330.585524857985</v>
+        <v>1573.831324339779</v>
       </c>
       <c r="X17" t="n">
-        <v>2016.331035351586</v>
+        <v>1154.688860919089</v>
       </c>
       <c r="Y17" t="n">
-        <v>2016.331035351586</v>
+        <v>1154.688860919089</v>
       </c>
     </row>
     <row r="18">
@@ -5597,16 +5597,16 @@
         <v>176.0987798711818</v>
       </c>
       <c r="K18" t="n">
-        <v>329.8733934990793</v>
+        <v>337.2933730396215</v>
       </c>
       <c r="L18" t="n">
-        <v>546.61941666239</v>
+        <v>554.0393962029323</v>
       </c>
       <c r="M18" t="n">
-        <v>799.5518024445222</v>
+        <v>806.9717819850645</v>
       </c>
       <c r="N18" t="n">
-        <v>1059.178555854504</v>
+        <v>1066.598535395047</v>
       </c>
       <c r="O18" t="n">
         <v>1296.686313021258</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>946.1144112732832</v>
+        <v>769.2248962701572</v>
       </c>
       <c r="C19" t="n">
-        <v>787.4788618088934</v>
+        <v>769.2248962701572</v>
       </c>
       <c r="D19" t="n">
-        <v>621.6008690104161</v>
+        <v>603.3469034716799</v>
       </c>
       <c r="E19" t="n">
-        <v>451.8428652611534</v>
+        <v>433.5888997224171</v>
       </c>
       <c r="F19" t="n">
-        <v>275.1358112229096</v>
+        <v>256.8818456841733</v>
       </c>
       <c r="G19" t="n">
-        <v>110.3984232438269</v>
+        <v>179.7275274059352</v>
       </c>
       <c r="H19" t="n">
-        <v>110.3984232438269</v>
+        <v>47.41718474356106</v>
       </c>
       <c r="I19" t="n">
         <v>47.41718474356106</v>
@@ -5682,16 +5682,16 @@
         <v>746.4508683344815</v>
       </c>
       <c r="M19" t="n">
-        <v>1001.196023227498</v>
+        <v>877.6379078303847</v>
       </c>
       <c r="N19" t="n">
-        <v>1129.26372814164</v>
+        <v>1297.456503005972</v>
       </c>
       <c r="O19" t="n">
-        <v>1667.224231214333</v>
+        <v>1835.417006078665</v>
       </c>
       <c r="P19" t="n">
-        <v>2115.949728296286</v>
+        <v>2284.142503160617</v>
       </c>
       <c r="Q19" t="n">
         <v>2354.221017386493</v>
@@ -5709,16 +5709,16 @@
         <v>1705.881344755332</v>
       </c>
       <c r="V19" t="n">
-        <v>1418.925836625762</v>
+        <v>1705.881344755332</v>
       </c>
       <c r="W19" t="n">
-        <v>1418.925836625762</v>
+        <v>1433.854940341624</v>
       </c>
       <c r="X19" t="n">
-        <v>1173.534081959175</v>
+        <v>1188.463185675036</v>
       </c>
       <c r="Y19" t="n">
-        <v>946.1144112732832</v>
+        <v>961.0435149891443</v>
       </c>
     </row>
     <row r="20">
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2182.605853614736</v>
+        <v>1783.11161681819</v>
       </c>
       <c r="C20" t="n">
-        <v>1744.463380798159</v>
+        <v>1344.969144001614</v>
       </c>
       <c r="D20" t="n">
-        <v>1308.553595972604</v>
+        <v>909.0593591760581</v>
       </c>
       <c r="E20" t="n">
-        <v>874.7788511308988</v>
+        <v>475.2846143343533</v>
       </c>
       <c r="F20" t="n">
-        <v>446.9114215401066</v>
+        <v>47.41718474356106</v>
       </c>
       <c r="G20" t="n">
         <v>47.41718474356106</v>
@@ -5797,7 +5797,7 @@
         <v>2370.859237178053</v>
       </c>
       <c r="Y20" t="n">
-        <v>2182.605853614736</v>
+        <v>2209.411187303098</v>
       </c>
     </row>
     <row r="21">
@@ -5828,22 +5828,22 @@
         <v>47.41718474356106</v>
       </c>
       <c r="I21" t="n">
-        <v>74.36658772664265</v>
+        <v>81.78656726718471</v>
       </c>
       <c r="J21" t="n">
-        <v>168.6788003306397</v>
+        <v>176.0987798711818</v>
       </c>
       <c r="K21" t="n">
-        <v>329.8733934990794</v>
+        <v>337.2933730396215</v>
       </c>
       <c r="L21" t="n">
-        <v>546.6194166623901</v>
+        <v>554.0393962029323</v>
       </c>
       <c r="M21" t="n">
-        <v>799.5518024445223</v>
+        <v>806.9717819850645</v>
       </c>
       <c r="N21" t="n">
-        <v>1059.178555854504</v>
+        <v>1066.598535395047</v>
       </c>
       <c r="O21" t="n">
         <v>1296.686313021258</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>482.2693881405876</v>
+        <v>749.7658691513217</v>
       </c>
       <c r="C22" t="n">
-        <v>451.8428652611534</v>
+        <v>577.2041576345466</v>
       </c>
       <c r="D22" t="n">
-        <v>451.8428652611534</v>
+        <v>577.2041576345466</v>
       </c>
       <c r="E22" t="n">
-        <v>451.8428652611534</v>
+        <v>407.4461538852838</v>
       </c>
       <c r="F22" t="n">
-        <v>275.1358112229096</v>
+        <v>407.4461538852838</v>
       </c>
       <c r="G22" t="n">
-        <v>110.3984232438269</v>
+        <v>242.7087659062011</v>
       </c>
       <c r="H22" t="n">
         <v>110.3984232438269</v>
@@ -5913,22 +5913,22 @@
         <v>106.5856360663958</v>
       </c>
       <c r="K22" t="n">
-        <v>478.5760319909875</v>
+        <v>459.6370952014144</v>
       </c>
       <c r="L22" t="n">
-        <v>1021.209322905617</v>
+        <v>1002.270386116044</v>
       </c>
       <c r="M22" t="n">
-        <v>1152.39636240152</v>
+        <v>1589.058047317612</v>
       </c>
       <c r="N22" t="n">
-        <v>1280.464067315662</v>
+        <v>1717.125752231753</v>
       </c>
       <c r="O22" t="n">
-        <v>1667.224231214333</v>
+        <v>1835.417006078665</v>
       </c>
       <c r="P22" t="n">
-        <v>2115.949728296286</v>
+        <v>2284.142503160617</v>
       </c>
       <c r="Q22" t="n">
         <v>2354.221017386493</v>
@@ -5955,7 +5955,7 @@
         <v>901.5076775454665</v>
       </c>
       <c r="Y22" t="n">
-        <v>674.0880068595748</v>
+        <v>901.5076775454665</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1795.562260243649</v>
+        <v>728.9970315279711</v>
       </c>
       <c r="C23" t="n">
-        <v>1357.419787427072</v>
+        <v>728.9970315279711</v>
       </c>
       <c r="D23" t="n">
-        <v>921.5100026015164</v>
+        <v>728.9970315279711</v>
       </c>
       <c r="E23" t="n">
-        <v>487.7352577598116</v>
+        <v>728.9970315279711</v>
       </c>
       <c r="F23" t="n">
-        <v>59.86782816901933</v>
+        <v>728.9970315279711</v>
       </c>
       <c r="G23" t="n">
-        <v>59.86782816901933</v>
+        <v>329.5027947314255</v>
       </c>
       <c r="H23" t="n">
         <v>59.86782816901933</v>
@@ -5989,52 +5989,52 @@
         <v>131.3872351894289</v>
       </c>
       <c r="J23" t="n">
-        <v>289.7372980009268</v>
+        <v>724.9919854538447</v>
       </c>
       <c r="K23" t="n">
-        <v>527.0629941361638</v>
+        <v>962.3176815890816</v>
       </c>
       <c r="L23" t="n">
-        <v>821.4865059655037</v>
+        <v>1256.741193418422</v>
       </c>
       <c r="M23" t="n">
-        <v>1149.089392213011</v>
+        <v>1584.344079665929</v>
       </c>
       <c r="N23" t="n">
-        <v>1481.993235658277</v>
+        <v>1917.247923111195</v>
       </c>
       <c r="O23" t="n">
-        <v>2222.857609249891</v>
+        <v>2231.599582434964</v>
       </c>
       <c r="P23" t="n">
-        <v>2491.149477700053</v>
+        <v>2499.891450885126</v>
       </c>
       <c r="Q23" t="n">
-        <v>2876.194311196718</v>
+        <v>2707.040246443661</v>
       </c>
       <c r="R23" t="n">
         <v>2993.391408450966</v>
       </c>
       <c r="S23" t="n">
-        <v>2993.391408450966</v>
+        <v>2953.117696130898</v>
       </c>
       <c r="T23" t="n">
-        <v>2993.391408450966</v>
+        <v>2741.383454278721</v>
       </c>
       <c r="U23" t="n">
-        <v>2993.391408450966</v>
+        <v>2482.313439162153</v>
       </c>
       <c r="V23" t="n">
-        <v>2993.391408450966</v>
+        <v>2119.69648909598</v>
       </c>
       <c r="W23" t="n">
-        <v>2993.391408450966</v>
+        <v>1714.841034507013</v>
       </c>
       <c r="X23" t="n">
-        <v>2574.248945030277</v>
+        <v>1295.698571086324</v>
       </c>
       <c r="Y23" t="n">
-        <v>2165.96282132993</v>
+        <v>887.4124473859771</v>
       </c>
     </row>
     <row r="24">
@@ -6068,7 +6068,7 @@
         <v>94.23721069264298</v>
       </c>
       <c r="J24" t="n">
-        <v>181.129443756098</v>
+        <v>188.5494232966401</v>
       </c>
       <c r="K24" t="n">
         <v>342.3240369245377</v>
@@ -6135,10 +6135,10 @@
         <v>596.6038513489857</v>
       </c>
       <c r="F25" t="n">
-        <v>419.8967973107419</v>
+        <v>419.896797310742</v>
       </c>
       <c r="G25" t="n">
-        <v>255.1594093316594</v>
+        <v>255.1594093316593</v>
       </c>
       <c r="H25" t="n">
         <v>122.8490666692852</v>
@@ -6150,19 +6150,19 @@
         <v>205.615964656544</v>
       </c>
       <c r="K25" t="n">
-        <v>577.6063605811356</v>
+        <v>302.8479060100001</v>
       </c>
       <c r="L25" t="n">
-        <v>1120.239651495765</v>
+        <v>845.4811969246294</v>
       </c>
       <c r="M25" t="n">
-        <v>1251.426690991668</v>
+        <v>1436.152103601446</v>
       </c>
       <c r="N25" t="n">
-        <v>1751.795899414553</v>
+        <v>2006.478611673232</v>
       </c>
       <c r="O25" t="n">
-        <v>2289.756402487247</v>
+        <v>2544.439114745926</v>
       </c>
       <c r="P25" t="n">
         <v>2738.481899569199</v>
@@ -6202,16 +6202,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2014.184761943649</v>
+        <v>1167.139504344548</v>
       </c>
       <c r="C26" t="n">
-        <v>2014.184761943649</v>
+        <v>728.9970315279711</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.639205960468</v>
+        <v>728.9970315279711</v>
       </c>
       <c r="E26" t="n">
-        <v>1156.864461118763</v>
+        <v>728.9970315279711</v>
       </c>
       <c r="F26" t="n">
         <v>728.9970315279711</v>
@@ -6226,25 +6226,25 @@
         <v>131.3872351894289</v>
       </c>
       <c r="J26" t="n">
-        <v>289.7372980009268</v>
+        <v>724.9919854538447</v>
       </c>
       <c r="K26" t="n">
-        <v>527.0629941361638</v>
+        <v>1137.144521983618</v>
       </c>
       <c r="L26" t="n">
-        <v>821.4865059655037</v>
+        <v>1431.568033812958</v>
       </c>
       <c r="M26" t="n">
-        <v>1149.089392213011</v>
+        <v>1759.170920060466</v>
       </c>
       <c r="N26" t="n">
-        <v>1481.993235658277</v>
+        <v>2092.074763505732</v>
       </c>
       <c r="O26" t="n">
-        <v>2222.857609249891</v>
+        <v>2406.426422829501</v>
       </c>
       <c r="P26" t="n">
-        <v>2491.149477700053</v>
+        <v>2674.718291279663</v>
       </c>
       <c r="Q26" t="n">
         <v>2876.194311196718</v>
@@ -6259,19 +6259,19 @@
         <v>2781.657166598789</v>
       </c>
       <c r="U26" t="n">
-        <v>2781.657166598789</v>
+        <v>2522.587151482222</v>
       </c>
       <c r="V26" t="n">
-        <v>2419.040216532616</v>
+        <v>2159.970201416048</v>
       </c>
       <c r="W26" t="n">
-        <v>2014.184761943649</v>
+        <v>1755.114746827081</v>
       </c>
       <c r="X26" t="n">
-        <v>2014.184761943649</v>
+        <v>1335.972283406392</v>
       </c>
       <c r="Y26" t="n">
-        <v>2014.184761943649</v>
+        <v>1167.139504344548</v>
       </c>
     </row>
     <row r="27">
@@ -6317,13 +6317,13 @@
         <v>819.4224254105227</v>
       </c>
       <c r="N27" t="n">
-        <v>1079.049178820505</v>
+        <v>1071.629199279963</v>
       </c>
       <c r="O27" t="n">
-        <v>1316.556935987258</v>
+        <v>1309.136956446716</v>
       </c>
       <c r="P27" t="n">
-        <v>1507.177850167325</v>
+        <v>1499.757870626783</v>
       </c>
       <c r="Q27" t="n">
         <v>1627.182903616279</v>
@@ -6372,7 +6372,7 @@
         <v>596.6038513489857</v>
       </c>
       <c r="F28" t="n">
-        <v>419.896797310742</v>
+        <v>419.8967973107419</v>
       </c>
       <c r="G28" t="n">
         <v>255.1594093316593</v>
@@ -6387,22 +6387,22 @@
         <v>205.615964656544</v>
       </c>
       <c r="K28" t="n">
-        <v>302.8479060100001</v>
+        <v>507.6490609322345</v>
       </c>
       <c r="L28" t="n">
-        <v>758.9912595302828</v>
+        <v>1050.282351846864</v>
       </c>
       <c r="M28" t="n">
-        <v>1349.662166207099</v>
+        <v>1181.469391342767</v>
       </c>
       <c r="N28" t="n">
-        <v>1919.988674278885</v>
+        <v>1751.795899414553</v>
       </c>
       <c r="O28" t="n">
-        <v>2457.949177351579</v>
+        <v>2289.756402487247</v>
       </c>
       <c r="P28" t="n">
-        <v>2906.674674433531</v>
+        <v>2738.481899569199</v>
       </c>
       <c r="Q28" t="n">
         <v>2976.753188659406</v>
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>933.9200858111515</v>
+        <v>1761.281752198489</v>
       </c>
       <c r="C29" t="n">
-        <v>495.7776129945748</v>
+        <v>1323.139279381913</v>
       </c>
       <c r="D29" t="n">
-        <v>59.86782816901933</v>
+        <v>887.2294945563572</v>
       </c>
       <c r="E29" t="n">
-        <v>59.86782816901933</v>
+        <v>887.2294945563572</v>
       </c>
       <c r="F29" t="n">
-        <v>59.86782816901933</v>
+        <v>459.3620649655649</v>
       </c>
       <c r="G29" t="n">
         <v>59.86782816901933</v>
@@ -6463,28 +6463,28 @@
         <v>131.3872351894289</v>
       </c>
       <c r="J29" t="n">
-        <v>289.7372980009268</v>
+        <v>724.9919854538447</v>
       </c>
       <c r="K29" t="n">
-        <v>527.0629941361638</v>
+        <v>967.9904572305616</v>
       </c>
       <c r="L29" t="n">
-        <v>821.4865059655037</v>
+        <v>1262.413969059902</v>
       </c>
       <c r="M29" t="n">
-        <v>1351.210389914118</v>
+        <v>1590.01685530741</v>
       </c>
       <c r="N29" t="n">
-        <v>2092.074763505732</v>
+        <v>1922.920698752675</v>
       </c>
       <c r="O29" t="n">
-        <v>2406.426422829501</v>
+        <v>2237.272358076444</v>
       </c>
       <c r="P29" t="n">
-        <v>2674.718291279663</v>
+        <v>2505.564226526606</v>
       </c>
       <c r="Q29" t="n">
-        <v>2876.194311196718</v>
+        <v>2707.040246443661</v>
       </c>
       <c r="R29" t="n">
         <v>2993.391408450966</v>
@@ -6493,22 +6493,22 @@
         <v>2993.391408450966</v>
       </c>
       <c r="T29" t="n">
-        <v>2851.57371312263</v>
+        <v>2993.391408450966</v>
       </c>
       <c r="U29" t="n">
-        <v>2592.503698006062</v>
+        <v>2993.391408450966</v>
       </c>
       <c r="V29" t="n">
-        <v>2592.503698006062</v>
+        <v>2630.774458384793</v>
       </c>
       <c r="W29" t="n">
-        <v>2187.648243417095</v>
+        <v>2606.723786104086</v>
       </c>
       <c r="X29" t="n">
-        <v>1768.505779996406</v>
+        <v>2187.581322683397</v>
       </c>
       <c r="Y29" t="n">
-        <v>1360.219656296059</v>
+        <v>2187.581322683397</v>
       </c>
     </row>
     <row r="30">
@@ -6539,28 +6539,28 @@
         <v>59.86782816901933</v>
       </c>
       <c r="I30" t="n">
-        <v>86.81723115210092</v>
+        <v>94.23721069264298</v>
       </c>
       <c r="J30" t="n">
-        <v>181.129443756098</v>
+        <v>188.5494232966401</v>
       </c>
       <c r="K30" t="n">
-        <v>342.3240369245377</v>
+        <v>349.7440164650798</v>
       </c>
       <c r="L30" t="n">
-        <v>559.0700600878483</v>
+        <v>566.4900396283905</v>
       </c>
       <c r="M30" t="n">
-        <v>812.0024458699805</v>
+        <v>819.4224254105227</v>
       </c>
       <c r="N30" t="n">
-        <v>1071.629199279963</v>
+        <v>1079.049178820505</v>
       </c>
       <c r="O30" t="n">
-        <v>1309.136956446716</v>
+        <v>1316.556935987258</v>
       </c>
       <c r="P30" t="n">
-        <v>1499.757870626783</v>
+        <v>1507.177850167325</v>
       </c>
       <c r="Q30" t="n">
         <v>1627.182903616279</v>
@@ -6624,19 +6624,19 @@
         <v>205.615964656544</v>
       </c>
       <c r="K31" t="n">
-        <v>577.6063605811356</v>
+        <v>395.672087721663</v>
       </c>
       <c r="L31" t="n">
-        <v>1120.239651495765</v>
+        <v>938.3053786362924</v>
       </c>
       <c r="M31" t="n">
-        <v>1251.426690991668</v>
+        <v>1528.976285313109</v>
       </c>
       <c r="N31" t="n">
-        <v>1821.753199063455</v>
+        <v>2099.302793384895</v>
       </c>
       <c r="O31" t="n">
-        <v>2359.713702136148</v>
+        <v>2637.263296457588</v>
       </c>
       <c r="P31" t="n">
         <v>2738.481899569199</v>
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1936.215132693193</v>
+        <v>1795.562260243649</v>
       </c>
       <c r="C32" t="n">
-        <v>1498.072659876616</v>
+        <v>1357.419787427072</v>
       </c>
       <c r="D32" t="n">
-        <v>1062.16287505106</v>
+        <v>921.5100026015164</v>
       </c>
       <c r="E32" t="n">
-        <v>887.2294945563572</v>
+        <v>487.7352577598116</v>
       </c>
       <c r="F32" t="n">
-        <v>459.3620649655649</v>
+        <v>59.86782816901933</v>
       </c>
       <c r="G32" t="n">
         <v>59.86782816901933</v>
@@ -6700,28 +6700,28 @@
         <v>131.3872351894289</v>
       </c>
       <c r="J32" t="n">
-        <v>289.7372980009268</v>
+        <v>724.9919854538447</v>
       </c>
       <c r="K32" t="n">
-        <v>527.0629941361638</v>
+        <v>967.9904572305616</v>
       </c>
       <c r="L32" t="n">
-        <v>821.4865059655037</v>
+        <v>1262.413969059902</v>
       </c>
       <c r="M32" t="n">
-        <v>1149.089392213011</v>
+        <v>1590.01685530741</v>
       </c>
       <c r="N32" t="n">
-        <v>1889.953765804626</v>
+        <v>1922.920698752675</v>
       </c>
       <c r="O32" t="n">
-        <v>2406.426422829501</v>
+        <v>2237.272358076444</v>
       </c>
       <c r="P32" t="n">
-        <v>2674.718291279663</v>
+        <v>2505.564226526606</v>
       </c>
       <c r="Q32" t="n">
-        <v>2876.194311196718</v>
+        <v>2707.040246443661</v>
       </c>
       <c r="R32" t="n">
         <v>2993.391408450966</v>
@@ -6730,22 +6730,22 @@
         <v>2993.391408450966</v>
       </c>
       <c r="T32" t="n">
-        <v>2781.657166598789</v>
+        <v>2993.391408450966</v>
       </c>
       <c r="U32" t="n">
-        <v>2781.657166598789</v>
+        <v>2734.321393334398</v>
       </c>
       <c r="V32" t="n">
-        <v>2781.657166598789</v>
+        <v>2371.704443268225</v>
       </c>
       <c r="W32" t="n">
-        <v>2781.657166598789</v>
+        <v>2203.848383943995</v>
       </c>
       <c r="X32" t="n">
-        <v>2362.5147031781</v>
+        <v>2203.848383943995</v>
       </c>
       <c r="Y32" t="n">
-        <v>2362.5147031781</v>
+        <v>1795.562260243649</v>
       </c>
     </row>
     <row r="33">
@@ -6776,7 +6776,7 @@
         <v>59.86782816901933</v>
       </c>
       <c r="I33" t="n">
-        <v>86.81723115210092</v>
+        <v>94.23721069264298</v>
       </c>
       <c r="J33" t="n">
         <v>181.129443756098</v>
@@ -6858,22 +6858,22 @@
         <v>59.86782816901933</v>
       </c>
       <c r="J34" t="n">
-        <v>119.0362794918541</v>
+        <v>205.615964656544</v>
       </c>
       <c r="K34" t="n">
-        <v>491.0266754164458</v>
+        <v>302.8479060100001</v>
       </c>
       <c r="L34" t="n">
-        <v>1033.659966331075</v>
+        <v>845.4811969246294</v>
       </c>
       <c r="M34" t="n">
-        <v>1624.330873007892</v>
+        <v>1436.152103601446</v>
       </c>
       <c r="N34" t="n">
-        <v>1752.398577922033</v>
+        <v>2006.478611673232</v>
       </c>
       <c r="O34" t="n">
-        <v>2289.756402487247</v>
+        <v>2544.439114745926</v>
       </c>
       <c r="P34" t="n">
         <v>2738.481899569199</v>
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1324.539301140622</v>
+        <v>1783.11161681819</v>
       </c>
       <c r="C35" t="n">
-        <v>1316.595951207367</v>
+        <v>1344.969144001614</v>
       </c>
       <c r="D35" t="n">
-        <v>880.6861663818114</v>
+        <v>909.0593591760581</v>
       </c>
       <c r="E35" t="n">
-        <v>446.9114215401066</v>
+        <v>475.2846143343533</v>
       </c>
       <c r="F35" t="n">
-        <v>446.9114215401066</v>
+        <v>47.41718474356106</v>
       </c>
       <c r="G35" t="n">
         <v>47.41718474356106</v>
@@ -6934,19 +6934,19 @@
         <v>47.41718474356106</v>
       </c>
       <c r="I35" t="n">
-        <v>118.9365917639715</v>
+        <v>118.9365917639706</v>
       </c>
       <c r="J35" t="n">
-        <v>277.2866545754693</v>
+        <v>277.2866545754685</v>
       </c>
       <c r="K35" t="n">
-        <v>514.6123507107062</v>
+        <v>514.6123507107055</v>
       </c>
       <c r="L35" t="n">
-        <v>809.0358625400463</v>
+        <v>809.0358625400455</v>
       </c>
       <c r="M35" t="n">
-        <v>1136.638748787554</v>
+        <v>1136.638748787553</v>
       </c>
       <c r="N35" t="n">
         <v>1469.542592232819</v>
@@ -6967,22 +6967,22 @@
         <v>2370.859237178053</v>
       </c>
       <c r="T35" t="n">
-        <v>2159.124995325876</v>
+        <v>2370.859237178053</v>
       </c>
       <c r="U35" t="n">
-        <v>2159.124995325876</v>
+        <v>2370.859237178053</v>
       </c>
       <c r="V35" t="n">
-        <v>2159.124995325876</v>
+        <v>2370.859237178053</v>
       </c>
       <c r="W35" t="n">
-        <v>2159.124995325876</v>
+        <v>2370.859237178053</v>
       </c>
       <c r="X35" t="n">
-        <v>2159.124995325876</v>
+        <v>1951.716773757364</v>
       </c>
       <c r="Y35" t="n">
-        <v>1750.838871625529</v>
+        <v>1951.716773757364</v>
       </c>
     </row>
     <row r="36">
@@ -7013,19 +7013,19 @@
         <v>47.41718474356106</v>
       </c>
       <c r="I36" t="n">
-        <v>74.36658772664265</v>
+        <v>81.78656726718471</v>
       </c>
       <c r="J36" t="n">
-        <v>168.6788003306397</v>
+        <v>168.6788003306395</v>
       </c>
       <c r="K36" t="n">
-        <v>329.8733934990794</v>
+        <v>329.8733934990793</v>
       </c>
       <c r="L36" t="n">
-        <v>546.6194166623901</v>
+        <v>546.61941666239</v>
       </c>
       <c r="M36" t="n">
-        <v>799.5518024445223</v>
+        <v>799.5518024445222</v>
       </c>
       <c r="N36" t="n">
         <v>1059.178555854504</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.4729231895654</v>
+        <v>626.6298353008929</v>
       </c>
       <c r="C37" t="n">
-        <v>753.9112116727904</v>
+        <v>454.0681237841178</v>
       </c>
       <c r="D37" t="n">
-        <v>753.9112116727904</v>
+        <v>288.1901309856405</v>
       </c>
       <c r="E37" t="n">
-        <v>584.1532079235276</v>
+        <v>118.4321272363778</v>
       </c>
       <c r="F37" t="n">
-        <v>407.4461538852838</v>
+        <v>47.41718474356106</v>
       </c>
       <c r="G37" t="n">
-        <v>242.7087659062011</v>
+        <v>47.41718474356106</v>
       </c>
       <c r="H37" t="n">
-        <v>110.3984232438269</v>
+        <v>47.41718474356106</v>
       </c>
       <c r="I37" t="n">
         <v>47.41718474356106</v>
@@ -7098,22 +7098,22 @@
         <v>106.5856360663958</v>
       </c>
       <c r="K37" t="n">
-        <v>478.5760319909875</v>
+        <v>203.817577419852</v>
       </c>
       <c r="L37" t="n">
-        <v>1021.209322905617</v>
+        <v>328.2409865665204</v>
       </c>
       <c r="M37" t="n">
-        <v>1607.996984107185</v>
+        <v>727.1299949341857</v>
       </c>
       <c r="N37" t="n">
-        <v>1736.064689021327</v>
+        <v>1297.456503005972</v>
       </c>
       <c r="O37" t="n">
-        <v>2014.731125184675</v>
+        <v>1835.417006078665</v>
       </c>
       <c r="P37" t="n">
-        <v>2115.949728296286</v>
+        <v>2284.142503160617</v>
       </c>
       <c r="Q37" t="n">
         <v>2354.221017386493</v>
@@ -7122,25 +7122,25 @@
         <v>2370.859237178053</v>
       </c>
       <c r="S37" t="n">
-        <v>2226.498790017748</v>
+        <v>2370.859237178053</v>
       </c>
       <c r="T37" t="n">
-        <v>1984.267769847949</v>
+        <v>2128.628217008255</v>
       </c>
       <c r="U37" t="n">
-        <v>1958.266261085323</v>
+        <v>1850.241791915637</v>
       </c>
       <c r="V37" t="n">
-        <v>1671.310752955753</v>
+        <v>1563.286283786068</v>
       </c>
       <c r="W37" t="n">
-        <v>1399.284348542045</v>
+        <v>1291.259879372359</v>
       </c>
       <c r="X37" t="n">
-        <v>1153.892593875457</v>
+        <v>1045.868124705772</v>
       </c>
       <c r="Y37" t="n">
-        <v>926.4729231895654</v>
+        <v>818.44845401988</v>
       </c>
     </row>
     <row r="38">
@@ -7150,16 +7150,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>516.8882302853087</v>
+        <v>1783.11161681819</v>
       </c>
       <c r="C38" t="n">
-        <v>516.8882302853087</v>
+        <v>1344.969144001614</v>
       </c>
       <c r="D38" t="n">
-        <v>481.1919295852659</v>
+        <v>909.0593591760581</v>
       </c>
       <c r="E38" t="n">
-        <v>47.41718474356106</v>
+        <v>475.2846143343533</v>
       </c>
       <c r="F38" t="n">
         <v>47.41718474356106</v>
@@ -7207,19 +7207,19 @@
         <v>2370.859237178053</v>
       </c>
       <c r="U38" t="n">
-        <v>2111.789222061485</v>
+        <v>2370.859237178053</v>
       </c>
       <c r="V38" t="n">
-        <v>1749.172271995311</v>
+        <v>2370.859237178053</v>
       </c>
       <c r="W38" t="n">
-        <v>1344.316817406345</v>
+        <v>2370.859237178053</v>
       </c>
       <c r="X38" t="n">
-        <v>925.1743539856553</v>
+        <v>1951.716773757364</v>
       </c>
       <c r="Y38" t="n">
-        <v>516.8882302853087</v>
+        <v>1951.716773757364</v>
       </c>
     </row>
     <row r="39">
@@ -7250,10 +7250,10 @@
         <v>47.41718474356106</v>
       </c>
       <c r="I39" t="n">
-        <v>74.36658772664244</v>
+        <v>81.78656726718471</v>
       </c>
       <c r="J39" t="n">
-        <v>168.6788003306395</v>
+        <v>176.0987798711818</v>
       </c>
       <c r="K39" t="n">
         <v>329.8733934990793</v>
@@ -7335,19 +7335,19 @@
         <v>106.5856360663958</v>
       </c>
       <c r="K40" t="n">
-        <v>478.5760319909876</v>
+        <v>203.817577419852</v>
       </c>
       <c r="L40" t="n">
-        <v>1021.209322905617</v>
+        <v>746.4508683344815</v>
       </c>
       <c r="M40" t="n">
-        <v>1169.38879809183</v>
+        <v>1333.23852953605</v>
       </c>
       <c r="N40" t="n">
-        <v>1297.456503005972</v>
+        <v>1903.565037607836</v>
       </c>
       <c r="O40" t="n">
-        <v>1835.417006078665</v>
+        <v>2182.923900049007</v>
       </c>
       <c r="P40" t="n">
         <v>2284.142503160617</v>
@@ -7362,22 +7362,22 @@
         <v>2226.498790017748</v>
       </c>
       <c r="T40" t="n">
-        <v>2121.238916549468</v>
+        <v>1984.267769847949</v>
       </c>
       <c r="U40" t="n">
-        <v>1842.852491456851</v>
+        <v>1705.881344755332</v>
       </c>
       <c r="V40" t="n">
-        <v>1555.896983327282</v>
+        <v>1418.925836625762</v>
       </c>
       <c r="W40" t="n">
-        <v>1283.870578913573</v>
+        <v>1146.899432212054</v>
       </c>
       <c r="X40" t="n">
-        <v>1283.870578913573</v>
+        <v>901.5076775454665</v>
       </c>
       <c r="Y40" t="n">
-        <v>1056.450908227681</v>
+        <v>901.5076775454665</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>919.3344024018426</v>
+        <v>716.5463881025128</v>
       </c>
       <c r="C41" t="n">
-        <v>481.1919295852659</v>
+        <v>716.5463881025128</v>
       </c>
       <c r="D41" t="n">
-        <v>481.1919295852659</v>
+        <v>716.5463881025128</v>
       </c>
       <c r="E41" t="n">
-        <v>47.41718474356106</v>
+        <v>716.5463881025128</v>
       </c>
       <c r="F41" t="n">
-        <v>47.41718474356106</v>
+        <v>716.5463881025128</v>
       </c>
       <c r="G41" t="n">
-        <v>47.41718474356106</v>
+        <v>317.0521513059672</v>
       </c>
       <c r="H41" t="n">
         <v>47.41718474356106</v>
@@ -7414,10 +7414,10 @@
         <v>277.2866545754685</v>
       </c>
       <c r="K41" t="n">
-        <v>514.6123507107054</v>
+        <v>514.6123507107055</v>
       </c>
       <c r="L41" t="n">
-        <v>809.0358625400454</v>
+        <v>809.0358625400455</v>
       </c>
       <c r="M41" t="n">
         <v>1136.638748787553</v>
@@ -7438,25 +7438,25 @@
         <v>2370.859237178053</v>
       </c>
       <c r="S41" t="n">
-        <v>2330.585524857985</v>
+        <v>2370.859237178053</v>
       </c>
       <c r="T41" t="n">
-        <v>2330.585524857985</v>
+        <v>2159.124995325876</v>
       </c>
       <c r="U41" t="n">
-        <v>2071.515509741417</v>
+        <v>2159.124995325876</v>
       </c>
       <c r="V41" t="n">
-        <v>1708.898559675243</v>
+        <v>1796.508045259703</v>
       </c>
       <c r="W41" t="n">
-        <v>1304.043105086276</v>
+        <v>1391.652590670736</v>
       </c>
       <c r="X41" t="n">
-        <v>1304.043105086276</v>
+        <v>972.5101272500466</v>
       </c>
       <c r="Y41" t="n">
-        <v>919.3344024018426</v>
+        <v>972.5101272500466</v>
       </c>
     </row>
     <row r="42">
@@ -7487,25 +7487,25 @@
         <v>47.41718474356106</v>
       </c>
       <c r="I42" t="n">
-        <v>74.36658772664244</v>
+        <v>81.78656726718471</v>
       </c>
       <c r="J42" t="n">
-        <v>168.6788003306395</v>
+        <v>176.0987798711818</v>
       </c>
       <c r="K42" t="n">
-        <v>329.8733934990793</v>
+        <v>337.2933730396216</v>
       </c>
       <c r="L42" t="n">
-        <v>546.61941666239</v>
+        <v>554.0393962029324</v>
       </c>
       <c r="M42" t="n">
-        <v>799.5518024445222</v>
+        <v>806.9717819850646</v>
       </c>
       <c r="N42" t="n">
-        <v>1059.178555854504</v>
+        <v>1066.598535395047</v>
       </c>
       <c r="O42" t="n">
-        <v>1296.686313021258</v>
+        <v>1304.1062925618</v>
       </c>
       <c r="P42" t="n">
         <v>1487.307227201325</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>757.8555242596972</v>
+        <v>626.6298353008929</v>
       </c>
       <c r="C43" t="n">
-        <v>585.2938127429221</v>
+        <v>547.7905692703838</v>
       </c>
       <c r="D43" t="n">
-        <v>419.4158199444448</v>
+        <v>381.9125764719065</v>
       </c>
       <c r="E43" t="n">
-        <v>419.4158199444448</v>
+        <v>212.1545727226438</v>
       </c>
       <c r="F43" t="n">
-        <v>242.7087659062011</v>
+        <v>212.1545727226438</v>
       </c>
       <c r="G43" t="n">
-        <v>242.7087659062011</v>
+        <v>47.41718474356106</v>
       </c>
       <c r="H43" t="n">
-        <v>110.3984232438269</v>
+        <v>47.41718474356106</v>
       </c>
       <c r="I43" t="n">
         <v>47.41718474356106</v>
@@ -7578,16 +7578,16 @@
         <v>328.2409865665204</v>
       </c>
       <c r="M43" t="n">
-        <v>915.0286477680885</v>
+        <v>727.1299949341857</v>
       </c>
       <c r="N43" t="n">
-        <v>1129.26372814164</v>
+        <v>1297.456503005972</v>
       </c>
       <c r="O43" t="n">
-        <v>1667.224231214333</v>
+        <v>1835.417006078665</v>
       </c>
       <c r="P43" t="n">
-        <v>2115.949728296286</v>
+        <v>2284.142503160617</v>
       </c>
       <c r="Q43" t="n">
         <v>2354.221017386493</v>
@@ -7596,25 +7596,25 @@
         <v>2370.859237178053</v>
       </c>
       <c r="S43" t="n">
-        <v>2226.498790017748</v>
+        <v>2370.859237178053</v>
       </c>
       <c r="T43" t="n">
-        <v>2032.434235281167</v>
+        <v>2128.628217008255</v>
       </c>
       <c r="U43" t="n">
-        <v>1754.04781018855</v>
+        <v>1850.241791915637</v>
       </c>
       <c r="V43" t="n">
-        <v>1467.09230205898</v>
+        <v>1563.286283786068</v>
       </c>
       <c r="W43" t="n">
-        <v>1195.065897645272</v>
+        <v>1291.259879372359</v>
       </c>
       <c r="X43" t="n">
-        <v>949.6741429786844</v>
+        <v>1045.868124705772</v>
       </c>
       <c r="Y43" t="n">
-        <v>949.6741429786844</v>
+        <v>818.44845401988</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2182.605853614736</v>
+        <v>706.2830050692602</v>
       </c>
       <c r="C44" t="n">
-        <v>1744.463380798159</v>
+        <v>706.2830050692602</v>
       </c>
       <c r="D44" t="n">
-        <v>1308.553595972604</v>
+        <v>706.2830050692602</v>
       </c>
       <c r="E44" t="n">
-        <v>874.7788511308988</v>
+        <v>706.2830050692602</v>
       </c>
       <c r="F44" t="n">
-        <v>446.9114215401066</v>
+        <v>706.2830050692602</v>
       </c>
       <c r="G44" t="n">
-        <v>47.41718474356106</v>
+        <v>306.7887682727147</v>
       </c>
       <c r="H44" t="n">
         <v>47.41718474356106</v>
@@ -7678,22 +7678,22 @@
         <v>2370.859237178053</v>
       </c>
       <c r="T44" t="n">
-        <v>2370.859237178053</v>
+        <v>2159.124995325876</v>
       </c>
       <c r="U44" t="n">
-        <v>2370.859237178053</v>
+        <v>1900.054980209308</v>
       </c>
       <c r="V44" t="n">
-        <v>2370.859237178053</v>
+        <v>1537.438030143135</v>
       </c>
       <c r="W44" t="n">
-        <v>2182.605853614736</v>
+        <v>1132.582575554168</v>
       </c>
       <c r="X44" t="n">
-        <v>2182.605853614736</v>
+        <v>1132.582575554168</v>
       </c>
       <c r="Y44" t="n">
-        <v>2182.605853614736</v>
+        <v>1132.582575554168</v>
       </c>
     </row>
     <row r="45">
@@ -7742,10 +7742,10 @@
         <v>1066.598535395047</v>
       </c>
       <c r="O45" t="n">
-        <v>1296.686313021258</v>
+        <v>1304.1062925618</v>
       </c>
       <c r="P45" t="n">
-        <v>1487.307227201325</v>
+        <v>1494.727206741867</v>
       </c>
       <c r="Q45" t="n">
         <v>1614.73226019082</v>
@@ -7782,7 +7782,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>919.7892044712677</v>
+        <v>1092.350915988043</v>
       </c>
       <c r="C46" t="n">
         <v>919.7892044712677</v>
@@ -7806,25 +7806,25 @@
         <v>47.41718474356106</v>
       </c>
       <c r="J46" t="n">
-        <v>193.1653212310857</v>
+        <v>106.5856360663958</v>
       </c>
       <c r="K46" t="n">
-        <v>565.1557171556774</v>
+        <v>203.817577419852</v>
       </c>
       <c r="L46" t="n">
-        <v>1107.789008070307</v>
+        <v>487.8492277029595</v>
       </c>
       <c r="M46" t="n">
-        <v>1420.86527245328</v>
+        <v>1074.636888904527</v>
       </c>
       <c r="N46" t="n">
-        <v>1548.932977367421</v>
+        <v>1644.963396976314</v>
       </c>
       <c r="O46" t="n">
-        <v>1667.224231214333</v>
+        <v>2182.923900049007</v>
       </c>
       <c r="P46" t="n">
-        <v>2115.949728296286</v>
+        <v>2284.142503160617</v>
       </c>
       <c r="Q46" t="n">
         <v>2354.221017386493</v>
@@ -7833,25 +7833,25 @@
         <v>2370.859237178053</v>
       </c>
       <c r="S46" t="n">
-        <v>2226.498790017748</v>
+        <v>2370.859237178053</v>
       </c>
       <c r="T46" t="n">
-        <v>1984.267769847949</v>
+        <v>2128.628217008255</v>
       </c>
       <c r="U46" t="n">
-        <v>1705.881344755332</v>
+        <v>1850.241791915637</v>
       </c>
       <c r="V46" t="n">
-        <v>1418.925836625762</v>
+        <v>1850.241791915637</v>
       </c>
       <c r="W46" t="n">
-        <v>1418.925836625762</v>
+        <v>1578.215387501929</v>
       </c>
       <c r="X46" t="n">
-        <v>1173.534081959175</v>
+        <v>1511.589205392922</v>
       </c>
       <c r="Y46" t="n">
-        <v>1111.607823190255</v>
+        <v>1284.16953470703</v>
       </c>
     </row>
   </sheetData>
@@ -8528,16 +8528,16 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>20.21921301011771</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>21.75440028723776</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8549,7 +8549,7 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>27.86212986344086</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -8610,16 +8610,16 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>37.13925100285415</v>
       </c>
       <c r="K10" t="n">
-        <v>34.45295969778792</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>32.53395007869804</v>
+        <v>31.52930186393523</v>
       </c>
       <c r="M10" t="n">
-        <v>3.87932254495783</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
@@ -8628,10 +8628,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>34.17160518172662</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>36.36928463638102</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8850,22 +8850,22 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>460.2026481875401</v>
+        <v>460.2026481875399</v>
       </c>
       <c r="N13" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>327.7828589224227</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>73.06679767063224</v>
       </c>
       <c r="Q13" t="n">
         <v>169.8916917821538</v>
@@ -9084,25 +9084,25 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
-        <v>15.62059359776839</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>460.2026481875401</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512944</v>
+        <v>183.7264897849188</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q16" t="n">
         <v>169.8916917821538</v>
@@ -9330,10 +9330,10 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
-        <v>124.8061771688017</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>294.6978689509551</v>
       </c>
       <c r="O19" t="n">
         <v>423.9083325512944</v>
@@ -9342,7 +9342,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q19" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9561,25 +9561,25 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>277.5337924960966</v>
+        <v>258.4035533147095</v>
       </c>
       <c r="L22" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>460.2026481875401</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>271.1807172239994</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q22" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9652,16 +9652,16 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>430.8209235028735</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>185.4230440198085</v>
+        <v>5.730076405535328</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9798,22 +9798,22 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K25" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N25" t="n">
-        <v>376.0621247563065</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P25" t="n">
-        <v>351.0170646165068</v>
+        <v>93.76179970875046</v>
       </c>
       <c r="Q25" t="n">
         <v>169.8916917821538</v>
@@ -9874,10 +9874,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>176.5927680752898</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -9889,13 +9889,13 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>430.8209235028735</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>185.4230440198085</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -10035,13 +10035,13 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>206.8698534568024</v>
       </c>
       <c r="L28" t="n">
-        <v>335.0706508824388</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M28" t="n">
-        <v>464.1251183645587</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
         <v>446.7260637956006</v>
@@ -10053,7 +10053,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10111,19 +10111,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>5.730076405535328</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>204.1626239405114</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>412.0813435821703</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10272,13 +10272,13 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K31" t="n">
-        <v>277.5337924960966</v>
+        <v>93.7617997087504</v>
       </c>
       <c r="L31" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N31" t="n">
         <v>446.7260637956006</v>
@@ -10287,7 +10287,7 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P31" t="n">
-        <v>280.3531255772123</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
         <v>169.8916917821538</v>
@@ -10348,10 +10348,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>5.730076405535328</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -10360,10 +10360,10 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>412.0813435821706</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>204.1626239405114</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -10372,7 +10372,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10506,10 +10506,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K34" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
         <v>422.4342240080415</v>
@@ -10518,13 +10518,13 @@
         <v>464.1251183645587</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O34" t="n">
-        <v>423.299566382123</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P34" t="n">
-        <v>351.0170646165068</v>
+        <v>93.76179970875046</v>
       </c>
       <c r="Q34" t="n">
         <v>169.8916917821538</v>
@@ -10746,25 +10746,25 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>460.20264818754</v>
+        <v>270.4060291633959</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O37" t="n">
-        <v>161.9951336529662</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q37" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10983,22 +10983,22 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
-        <v>17.16407645485856</v>
+        <v>460.2026481875403</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>423.9083325512944</v>
+        <v>162.6945541356154</v>
       </c>
       <c r="P40" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -11226,10 +11226,10 @@
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>460.2026481875401</v>
+        <v>270.4060291633959</v>
       </c>
       <c r="N43" t="n">
-        <v>87.03775298930304</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
         <v>423.9083325512944</v>
@@ -11238,7 +11238,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q43" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11454,28 +11454,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>422.4342240080415</v>
+        <v>161.2204455923627</v>
       </c>
       <c r="M46" t="n">
-        <v>183.7264897849188</v>
+        <v>460.2026481875401</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P46" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23269,13 +23269,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>343.5006916541067</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>395.49929442858</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>266.9386168967821</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23308,25 +23308,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>39.87097519686765</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>82.32769184883685</v>
       </c>
       <c r="U11" t="n">
-        <v>256.4793149654022</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -23418,19 +23418,19 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>170.8360944016073</v>
+        <v>101.7315021013356</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>22.14635733568144</v>
+        <v>163.0900140992919</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23497,7 +23497,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23506,13 +23506,13 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>11.10510526069635</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>395.49929442858</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>266.9386168967821</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23557,7 +23557,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>177.9275364523249</v>
       </c>
       <c r="X14" t="n">
         <v>414.9510387864824</v>
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
-        <v>76.12629308022898</v>
+        <v>108.6110618874259</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.0900140992919</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>62.3514261152632</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23709,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>275.6025608416909</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23740,10 +23740,10 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -23785,19 +23785,19 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>209.616899433655</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>256.4793149654022</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>358.9907805655117</v>
+        <v>75.90033645154506</v>
       </c>
       <c r="W17" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
-        <v>103.8390941751483</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>404.2032624633431</v>
@@ -23889,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>13.78690043186143</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23904,13 +23904,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>86.70723900383615</v>
       </c>
       <c r="H19" t="n">
-        <v>130.9872392357504</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>62.3514261152632</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23949,10 +23949,10 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W19" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -23983,7 +23983,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>395.49929442858</v>
       </c>
       <c r="H20" t="n">
         <v>266.9386168967821</v>
@@ -24037,7 +24037,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
-        <v>217.8324127356596</v>
+        <v>244.3696930871378</v>
       </c>
     </row>
     <row r="21">
@@ -24126,25 +24126,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>39.67604222159383</v>
       </c>
       <c r="C22" t="n">
-        <v>140.7138367509674</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>130.9872392357504</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="23">
@@ -24205,25 +24205,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>55.3400193046399</v>
+        <v>265.2053130806328</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G23" t="n">
-        <v>395.49929442858</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>266.9386168967821</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24256,19 +24256,19 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>39.87097519686765</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>209.616899433655</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>256.4793149654022</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -24445,16 +24445,16 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C26" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>12.24058655395078</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -24499,7 +24499,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>256.4793149654022</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24508,10 +24508,10 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>404.2032624633431</v>
+        <v>237.0588111921174</v>
       </c>
     </row>
     <row r="27">
@@ -24691,10 +24691,10 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F29" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>395.49929442858</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>266.9386168967821</v>
@@ -24733,22 +24733,22 @@
         <v>39.87097519686765</v>
       </c>
       <c r="T29" t="n">
-        <v>69.2173810586024</v>
+        <v>209.616899433655</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>256.4793149654022</v>
       </c>
       <c r="V29" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>376.9967344851778</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="30">
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -24925,13 +24925,13 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>256.2529507035316</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>395.49929442858</v>
       </c>
       <c r="H32" t="n">
         <v>266.9386168967821</v>
@@ -24970,22 +24970,22 @@
         <v>39.87097519686765</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>209.616899433655</v>
       </c>
       <c r="U32" t="n">
-        <v>256.4793149654022</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>400.806900043077</v>
+        <v>234.6294013120897</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y32" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25153,10 +25153,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>255.117469410277</v>
       </c>
       <c r="C35" t="n">
-        <v>425.8971316544885</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -25165,10 +25165,10 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>395.49929442858</v>
       </c>
       <c r="H35" t="n">
         <v>266.9386168967821</v>
@@ -25207,7 +25207,7 @@
         <v>39.87097519686765</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>209.616899433655</v>
       </c>
       <c r="U35" t="n">
         <v>256.4793149654022</v>
@@ -25219,10 +25219,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="36">
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>104.6351904299728</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>163.0900140992919</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>130.9872392357504</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>62.35142611526319</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,13 +25362,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>142.9168426887021</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>249.8610671666906</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25390,19 +25390,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>422.0365747800587</v>
+        <v>255.117469410277</v>
       </c>
       <c r="C38" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>396.2113492842575</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>395.49929442858</v>
@@ -25447,19 +25447,19 @@
         <v>209.616899433655</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>256.4793149654022</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="39">
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>153.3937983753926</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25602,7 +25602,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>135.6014352345038</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25614,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="41">
@@ -25627,25 +25627,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.0365747800587</v>
+        <v>168.6324730240002</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>395.49929442858</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>266.9386168967821</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25678,13 +25678,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>39.87097519686765</v>
       </c>
       <c r="T41" t="n">
-        <v>209.616899433655</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>256.4793149654022</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25693,10 +25693,10 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>23.34164680575356</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -25788,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>92.78522103140334</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>163.0900140992919</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>130.9872392357504</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>62.35142611526319</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,10 +25836,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>142.9168426887021</v>
       </c>
       <c r="T43" t="n">
-        <v>47.68480077888529</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25864,25 +25864,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>266.9386168967821</v>
+        <v>10.16074920292004</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25918,16 +25918,16 @@
         <v>39.87097519686765</v>
       </c>
       <c r="T44" t="n">
-        <v>209.616899433655</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>256.4793149654022</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>214.4360503153935</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>414.9510387864824</v>
@@ -26025,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26073,7 +26073,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>142.9168426887021</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26082,16 +26082,16 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>176.9779168320045</v>
       </c>
       <c r="Y46" t="n">
-        <v>163.8384777978018</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>307227.5291869902</v>
+        <v>307227.5291869903</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>307227.5291869902</v>
+        <v>307227.5291869903</v>
       </c>
     </row>
     <row r="9">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>307227.5291869902</v>
+        <v>307227.5291869903</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>307227.5291869902</v>
+        <v>307227.5291869903</v>
       </c>
     </row>
     <row r="16">
@@ -26316,13 +26316,13 @@
         <v>431792.3221340781</v>
       </c>
       <c r="C2" t="n">
-        <v>431792.322134078</v>
+        <v>431792.3221340781</v>
       </c>
       <c r="D2" t="n">
-        <v>442321.538909587</v>
+        <v>442321.5389095868</v>
       </c>
       <c r="E2" t="n">
-        <v>260440.0516755136</v>
+        <v>260440.0516755135</v>
       </c>
       <c r="F2" t="n">
         <v>260440.0516755136</v>
@@ -26331,16 +26331,16 @@
         <v>260440.0516755136</v>
       </c>
       <c r="H2" t="n">
-        <v>260440.0516755135</v>
+        <v>260440.0516755136</v>
       </c>
       <c r="I2" t="n">
         <v>312062.2831787842</v>
       </c>
       <c r="J2" t="n">
+        <v>312062.2831787842</v>
+      </c>
+      <c r="K2" t="n">
         <v>312062.2831787843</v>
-      </c>
-      <c r="K2" t="n">
-        <v>312062.2831787842</v>
       </c>
       <c r="L2" t="n">
         <v>312062.2831787843</v>
@@ -26374,7 +26374,7 @@
         <v>40883.89454475579</v>
       </c>
       <c r="E3" t="n">
-        <v>514944.3509551201</v>
+        <v>514944.35095512</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>10456.45543630176</v>
       </c>
       <c r="M3" t="n">
-        <v>98626.66051350009</v>
+        <v>98626.6605135001</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>298730.7163118328</v>
+        <v>298730.7163118329</v>
       </c>
       <c r="C4" t="n">
-        <v>298730.7163118328</v>
+        <v>298730.7163118329</v>
       </c>
       <c r="D4" t="n">
-        <v>294235.7031510526</v>
+        <v>294235.7031510527</v>
       </c>
       <c r="E4" t="n">
         <v>15688.3661776343</v>
@@ -26432,34 +26432,34 @@
         <v>15688.36617763431</v>
       </c>
       <c r="G4" t="n">
-        <v>15688.36617763431</v>
+        <v>15688.3661776343</v>
       </c>
       <c r="H4" t="n">
-        <v>15688.36617763431</v>
+        <v>15688.3661776343</v>
       </c>
       <c r="I4" t="n">
+        <v>42917.352380211</v>
+      </c>
+      <c r="J4" t="n">
         <v>42917.35238021101</v>
       </c>
-      <c r="J4" t="n">
-        <v>42917.35238021102</v>
-      </c>
       <c r="K4" t="n">
-        <v>42917.35238021101</v>
+        <v>42917.352380211</v>
       </c>
       <c r="L4" t="n">
-        <v>42917.35238021102</v>
+        <v>42917.352380211</v>
       </c>
       <c r="M4" t="n">
-        <v>15688.36617763431</v>
+        <v>15688.3661776343</v>
       </c>
       <c r="N4" t="n">
-        <v>15688.36617763431</v>
+        <v>15688.3661776343</v>
       </c>
       <c r="O4" t="n">
-        <v>15688.36617763431</v>
+        <v>15688.3661776343</v>
       </c>
       <c r="P4" t="n">
-        <v>15688.36617763431</v>
+        <v>15688.3661776343</v>
       </c>
     </row>
     <row r="5">
@@ -26478,7 +26478,7 @@
         <v>36853.56981021012</v>
       </c>
       <c r="E5" t="n">
-        <v>46256.55073973801</v>
+        <v>46256.55073973799</v>
       </c>
       <c r="F5" t="n">
         <v>46256.55073973801</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>99434.00582224526</v>
+        <v>99402.09910474364</v>
       </c>
       <c r="C6" t="n">
-        <v>99434.00582224521</v>
+        <v>99402.09910474364</v>
       </c>
       <c r="D6" t="n">
-        <v>70348.3714035684</v>
+        <v>70348.37140356816</v>
       </c>
       <c r="E6" t="n">
-        <v>-316449.2161969787</v>
+        <v>-317000.3722189002</v>
       </c>
       <c r="F6" t="n">
-        <v>198495.1347581412</v>
+        <v>197943.9787362198</v>
       </c>
       <c r="G6" t="n">
-        <v>198495.1347581413</v>
+        <v>197943.9787362198</v>
       </c>
       <c r="H6" t="n">
-        <v>198495.1347581412</v>
+        <v>197943.9787362198</v>
       </c>
       <c r="I6" t="n">
-        <v>172039.7966762209</v>
+        <v>171645.0716588548</v>
       </c>
       <c r="J6" t="n">
-        <v>213425.891055487</v>
+        <v>213031.1660381208</v>
       </c>
       <c r="K6" t="n">
-        <v>213425.891055487</v>
+        <v>213031.166038121</v>
       </c>
       <c r="L6" t="n">
-        <v>202969.4356191852</v>
+        <v>202574.7106018192</v>
       </c>
       <c r="M6" t="n">
-        <v>99868.4742446412</v>
+        <v>99317.3182227198</v>
       </c>
       <c r="N6" t="n">
-        <v>198495.1347581413</v>
+        <v>197943.9787362198</v>
       </c>
       <c r="O6" t="n">
-        <v>198495.1347581413</v>
+        <v>197943.9787362198</v>
       </c>
       <c r="P6" t="n">
-        <v>198495.1347581412</v>
+        <v>197943.9787362199</v>
       </c>
     </row>
   </sheetData>
@@ -26746,13 +26746,13 @@
         <v>32.7531020605716</v>
       </c>
       <c r="E3" t="n">
+        <v>468.7839603042021</v>
+      </c>
+      <c r="F3" t="n">
         <v>468.7839603042022</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>468.7839603042021</v>
-      </c>
-      <c r="G3" t="n">
-        <v>468.7839603042022</v>
       </c>
       <c r="H3" t="n">
         <v>468.7839603042021</v>
@@ -26770,7 +26770,7 @@
         <v>468.7839603042021</v>
       </c>
       <c r="M3" t="n">
-        <v>468.7839603042021</v>
+        <v>468.7839603042022</v>
       </c>
       <c r="N3" t="n">
         <v>468.7839603042022</v>
@@ -26798,7 +26798,7 @@
         <v>41.31500304752735</v>
       </c>
       <c r="E4" t="n">
-        <v>592.7148092945132</v>
+        <v>592.714809294513</v>
       </c>
       <c r="F4" t="n">
         <v>592.7148092945132</v>
@@ -26968,7 +26968,7 @@
         <v>32.7531020605716</v>
       </c>
       <c r="E3" t="n">
-        <v>436.0308582436306</v>
+        <v>436.0308582436305</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>41.31500304752735</v>
       </c>
       <c r="E4" t="n">
-        <v>551.3998062469858</v>
+        <v>551.3998062469857</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>41.31500304752735</v>
       </c>
       <c r="M4" t="n">
-        <v>551.3998062469858</v>
+        <v>551.3998062469857</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27946,10 +27946,10 @@
         <v>82.55</v>
       </c>
       <c r="G9" t="n">
-        <v>43.14578572036749</v>
+        <v>84.46078876789484</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>4.247641631108515</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -27982,22 +27982,22 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>20.19730100379491</v>
+        <v>61.51230405132225</v>
       </c>
       <c r="T9" t="n">
-        <v>91.52553260125097</v>
+        <v>128.5928940176698</v>
       </c>
       <c r="U9" t="n">
         <v>174.5685466570983</v>
       </c>
       <c r="V9" t="n">
-        <v>197.1263427586206</v>
+        <v>155.8113397110933</v>
       </c>
       <c r="W9" t="n">
-        <v>183.4695267241379</v>
+        <v>142.1545236766106</v>
       </c>
       <c r="X9" t="n">
-        <v>153.3187614035088</v>
+        <v>112.0037583559815</v>
       </c>
       <c r="Y9" t="n">
         <v>125.2209214285714</v>
@@ -28019,16 +28019,16 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>150.2181261617868</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>133.624980450334</v>
       </c>
       <c r="G10" t="n">
-        <v>163.8762992535017</v>
+        <v>122.5612962059744</v>
       </c>
       <c r="H10" t="n">
-        <v>137.9780290613614</v>
+        <v>96.66302601383403</v>
       </c>
       <c r="I10" t="n">
         <v>85.99716511640959</v>
@@ -28061,16 +28061,16 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>115.304645464995</v>
+        <v>156.6196485125224</v>
       </c>
       <c r="T10" t="n">
-        <v>201.8532889431057</v>
+        <v>243.1682919906331</v>
       </c>
       <c r="U10" t="n">
-        <v>234.3304460753022</v>
+        <v>275.6454491228296</v>
       </c>
       <c r="V10" t="n">
-        <v>266.2436554982905</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
         <v>269.3061403695714</v>
@@ -31764,13 +31764,13 @@
         <v>159.9495583954524</v>
       </c>
       <c r="K11" t="n">
-        <v>239.7229253891283</v>
+        <v>239.7229253891282</v>
       </c>
       <c r="L11" t="n">
         <v>297.3974866963031</v>
       </c>
       <c r="M11" t="n">
-        <v>330.9120063106141</v>
+        <v>330.912006310614</v>
       </c>
       <c r="N11" t="n">
         <v>336.2665085305711</v>
@@ -31834,25 +31834,25 @@
         <v>1.00832776367319</v>
       </c>
       <c r="H12" t="n">
-        <v>9.738323401791071</v>
+        <v>9.738323401791069</v>
       </c>
       <c r="I12" t="n">
         <v>34.71654800366026</v>
       </c>
       <c r="J12" t="n">
-        <v>87.76993238732811</v>
+        <v>95.26486121615868</v>
       </c>
       <c r="K12" t="n">
         <v>162.8228213822624</v>
       </c>
       <c r="L12" t="n">
-        <v>218.9353769326371</v>
+        <v>211.4404481038067</v>
       </c>
       <c r="M12" t="n">
-        <v>255.4872583657902</v>
+        <v>255.4872583657901</v>
       </c>
       <c r="N12" t="n">
-        <v>262.2492458686688</v>
+        <v>262.2492458686687</v>
       </c>
       <c r="O12" t="n">
         <v>239.9068254209628</v>
@@ -31873,7 +31873,7 @@
         <v>4.0642684860336</v>
       </c>
       <c r="U12" t="n">
-        <v>0.06633735287323619</v>
+        <v>0.06633735287323618</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,19 +31910,19 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8453481251387251</v>
+        <v>0.845348125138725</v>
       </c>
       <c r="H13" t="n">
-        <v>7.515913330778853</v>
+        <v>7.515913330778852</v>
       </c>
       <c r="I13" t="n">
         <v>25.42192361780821</v>
       </c>
       <c r="J13" t="n">
-        <v>59.76611244730787</v>
+        <v>59.76611244730786</v>
       </c>
       <c r="K13" t="n">
-        <v>98.21408217520823</v>
+        <v>98.21408217520822</v>
       </c>
       <c r="L13" t="n">
         <v>125.680211259261</v>
@@ -31937,22 +31937,22 @@
         <v>119.4861149968809</v>
       </c>
       <c r="P13" t="n">
-        <v>102.2410132440509</v>
+        <v>102.2410132440508</v>
       </c>
       <c r="Q13" t="n">
         <v>70.78637800593452</v>
       </c>
       <c r="R13" t="n">
-        <v>38.0099256994194</v>
+        <v>38.00992569941939</v>
       </c>
       <c r="S13" t="n">
         <v>14.73211232628123</v>
       </c>
       <c r="T13" t="n">
-        <v>3.611941989229098</v>
+        <v>3.611941989229097</v>
       </c>
       <c r="U13" t="n">
-        <v>0.04610989773483961</v>
+        <v>0.0461098977348396</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32001,13 +32001,13 @@
         <v>159.9495583954524</v>
       </c>
       <c r="K14" t="n">
-        <v>239.7229253891282</v>
+        <v>239.7229253891283</v>
       </c>
       <c r="L14" t="n">
         <v>297.3974866963031</v>
       </c>
       <c r="M14" t="n">
-        <v>330.912006310614</v>
+        <v>330.9120063106141</v>
       </c>
       <c r="N14" t="n">
         <v>336.2665085305711</v>
@@ -32071,28 +32071,28 @@
         <v>1.00832776367319</v>
       </c>
       <c r="H15" t="n">
-        <v>9.738323401791069</v>
+        <v>9.738323401791071</v>
       </c>
       <c r="I15" t="n">
         <v>34.71654800366026</v>
       </c>
       <c r="J15" t="n">
-        <v>95.26486121615868</v>
+        <v>95.26486121615869</v>
       </c>
       <c r="K15" t="n">
-        <v>155.327892553432</v>
+        <v>162.8228213822624</v>
       </c>
       <c r="L15" t="n">
         <v>218.9353769326371</v>
       </c>
       <c r="M15" t="n">
-        <v>255.4872583657901</v>
+        <v>255.4872583657902</v>
       </c>
       <c r="N15" t="n">
-        <v>262.2492458686687</v>
+        <v>262.2492458686688</v>
       </c>
       <c r="O15" t="n">
-        <v>239.9068254209628</v>
+        <v>232.4118965921323</v>
       </c>
       <c r="P15" t="n">
         <v>192.5463779596637</v>
@@ -32110,7 +32110,7 @@
         <v>4.0642684860336</v>
       </c>
       <c r="U15" t="n">
-        <v>0.06633735287323618</v>
+        <v>0.06633735287323619</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,19 +32147,19 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.845348125138725</v>
+        <v>0.8453481251387251</v>
       </c>
       <c r="H16" t="n">
-        <v>7.515913330778852</v>
+        <v>7.515913330778853</v>
       </c>
       <c r="I16" t="n">
         <v>25.42192361780821</v>
       </c>
       <c r="J16" t="n">
-        <v>59.76611244730786</v>
+        <v>59.76611244730787</v>
       </c>
       <c r="K16" t="n">
-        <v>98.21408217520822</v>
+        <v>98.21408217520823</v>
       </c>
       <c r="L16" t="n">
         <v>125.680211259261</v>
@@ -32174,22 +32174,22 @@
         <v>119.4861149968809</v>
       </c>
       <c r="P16" t="n">
-        <v>102.2410132440508</v>
+        <v>102.2410132440509</v>
       </c>
       <c r="Q16" t="n">
         <v>70.78637800593452</v>
       </c>
       <c r="R16" t="n">
-        <v>38.00992569941939</v>
+        <v>38.0099256994194</v>
       </c>
       <c r="S16" t="n">
         <v>14.73211232628123</v>
       </c>
       <c r="T16" t="n">
-        <v>3.611941989229097</v>
+        <v>3.611941989229098</v>
       </c>
       <c r="U16" t="n">
-        <v>0.0461098977348396</v>
+        <v>0.04610989773483961</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32238,13 +32238,13 @@
         <v>159.9495583954524</v>
       </c>
       <c r="K17" t="n">
-        <v>239.7229253891283</v>
+        <v>239.7229253891282</v>
       </c>
       <c r="L17" t="n">
         <v>297.3974866963031</v>
       </c>
       <c r="M17" t="n">
-        <v>330.9120063106141</v>
+        <v>330.912006310614</v>
       </c>
       <c r="N17" t="n">
         <v>336.2665085305711</v>
@@ -32308,28 +32308,28 @@
         <v>1.00832776367319</v>
       </c>
       <c r="H18" t="n">
-        <v>9.738323401791071</v>
+        <v>9.738323401791069</v>
       </c>
       <c r="I18" t="n">
         <v>34.71654800366026</v>
       </c>
       <c r="J18" t="n">
-        <v>95.26486121615869</v>
+        <v>95.26486121615868</v>
       </c>
       <c r="K18" t="n">
-        <v>155.3278925534318</v>
+        <v>162.8228213822624</v>
       </c>
       <c r="L18" t="n">
         <v>218.9353769326371</v>
       </c>
       <c r="M18" t="n">
-        <v>255.4872583657902</v>
+        <v>255.4872583657901</v>
       </c>
       <c r="N18" t="n">
-        <v>262.2492458686688</v>
+        <v>262.2492458686687</v>
       </c>
       <c r="O18" t="n">
-        <v>239.9068254209628</v>
+        <v>232.4118965921323</v>
       </c>
       <c r="P18" t="n">
         <v>192.5463779596637</v>
@@ -32347,7 +32347,7 @@
         <v>4.0642684860336</v>
       </c>
       <c r="U18" t="n">
-        <v>0.06633735287323619</v>
+        <v>0.06633735287323618</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,19 +32384,19 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8453481251387251</v>
+        <v>0.845348125138725</v>
       </c>
       <c r="H19" t="n">
-        <v>7.515913330778853</v>
+        <v>7.515913330778852</v>
       </c>
       <c r="I19" t="n">
         <v>25.42192361780821</v>
       </c>
       <c r="J19" t="n">
-        <v>59.76611244730787</v>
+        <v>59.76611244730786</v>
       </c>
       <c r="K19" t="n">
-        <v>98.21408217520823</v>
+        <v>98.21408217520822</v>
       </c>
       <c r="L19" t="n">
         <v>125.680211259261</v>
@@ -32411,22 +32411,22 @@
         <v>119.4861149968809</v>
       </c>
       <c r="P19" t="n">
-        <v>102.2410132440509</v>
+        <v>102.2410132440508</v>
       </c>
       <c r="Q19" t="n">
         <v>70.78637800593452</v>
       </c>
       <c r="R19" t="n">
-        <v>38.0099256994194</v>
+        <v>38.00992569941939</v>
       </c>
       <c r="S19" t="n">
         <v>14.73211232628123</v>
       </c>
       <c r="T19" t="n">
-        <v>3.611941989229098</v>
+        <v>3.611941989229097</v>
       </c>
       <c r="U19" t="n">
-        <v>0.04610989773483961</v>
+        <v>0.0461098977348396</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32548,7 +32548,7 @@
         <v>9.738323401791069</v>
       </c>
       <c r="I21" t="n">
-        <v>27.22161917482989</v>
+        <v>34.71654800366026</v>
       </c>
       <c r="J21" t="n">
         <v>95.26486121615868</v>
@@ -32566,7 +32566,7 @@
         <v>262.2492458686687</v>
       </c>
       <c r="O21" t="n">
-        <v>239.9068254209628</v>
+        <v>232.4118965921323</v>
       </c>
       <c r="P21" t="n">
         <v>192.5463779596637</v>
@@ -32788,10 +32788,10 @@
         <v>34.71654800366026</v>
       </c>
       <c r="J24" t="n">
-        <v>87.76993238732831</v>
+        <v>95.26486121615868</v>
       </c>
       <c r="K24" t="n">
-        <v>162.8228213822624</v>
+        <v>155.327892553432</v>
       </c>
       <c r="L24" t="n">
         <v>218.9353769326371</v>
@@ -33037,7 +33037,7 @@
         <v>255.4872583657901</v>
       </c>
       <c r="N27" t="n">
-        <v>262.2492458686687</v>
+        <v>254.7543170398383</v>
       </c>
       <c r="O27" t="n">
         <v>239.9068254209628</v>
@@ -33046,7 +33046,7 @@
         <v>192.5463779596637</v>
       </c>
       <c r="Q27" t="n">
-        <v>121.217225706014</v>
+        <v>128.7121545348444</v>
       </c>
       <c r="R27" t="n">
         <v>62.60477115156876</v>
@@ -33259,7 +33259,7 @@
         <v>9.738323401791069</v>
       </c>
       <c r="I30" t="n">
-        <v>27.22161917482988</v>
+        <v>34.71654800366026</v>
       </c>
       <c r="J30" t="n">
         <v>95.26486121615868</v>
@@ -33283,7 +33283,7 @@
         <v>192.5463779596637</v>
       </c>
       <c r="Q30" t="n">
-        <v>128.7121545348444</v>
+        <v>121.217225706014</v>
       </c>
       <c r="R30" t="n">
         <v>62.60477115156876</v>
@@ -33496,10 +33496,10 @@
         <v>9.738323401791069</v>
       </c>
       <c r="I33" t="n">
-        <v>27.22161917482988</v>
+        <v>34.71654800366026</v>
       </c>
       <c r="J33" t="n">
-        <v>95.26486121615868</v>
+        <v>87.76993238732831</v>
       </c>
       <c r="K33" t="n">
         <v>162.8228213822624</v>
@@ -33660,13 +33660,13 @@
         <v>159.9495583954524</v>
       </c>
       <c r="K35" t="n">
-        <v>239.7229253891282</v>
+        <v>239.7229253891283</v>
       </c>
       <c r="L35" t="n">
         <v>297.3974866963031</v>
       </c>
       <c r="M35" t="n">
-        <v>330.912006310614</v>
+        <v>330.9120063106141</v>
       </c>
       <c r="N35" t="n">
         <v>336.2665085305711</v>
@@ -33730,13 +33730,13 @@
         <v>1.00832776367319</v>
       </c>
       <c r="H36" t="n">
-        <v>9.738323401791069</v>
+        <v>9.738323401791071</v>
       </c>
       <c r="I36" t="n">
-        <v>27.22161917482989</v>
+        <v>34.71654800366026</v>
       </c>
       <c r="J36" t="n">
-        <v>95.26486121615868</v>
+        <v>87.76993238732811</v>
       </c>
       <c r="K36" t="n">
         <v>162.8228213822624</v>
@@ -33745,10 +33745,10 @@
         <v>218.9353769326371</v>
       </c>
       <c r="M36" t="n">
-        <v>255.4872583657901</v>
+        <v>255.4872583657902</v>
       </c>
       <c r="N36" t="n">
-        <v>262.2492458686687</v>
+        <v>262.2492458686688</v>
       </c>
       <c r="O36" t="n">
         <v>239.9068254209628</v>
@@ -33769,7 +33769,7 @@
         <v>4.0642684860336</v>
       </c>
       <c r="U36" t="n">
-        <v>0.06633735287323618</v>
+        <v>0.06633735287323619</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,19 +33806,19 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.845348125138725</v>
+        <v>0.8453481251387251</v>
       </c>
       <c r="H37" t="n">
-        <v>7.515913330778852</v>
+        <v>7.515913330778853</v>
       </c>
       <c r="I37" t="n">
         <v>25.42192361780821</v>
       </c>
       <c r="J37" t="n">
-        <v>59.76611244730786</v>
+        <v>59.76611244730787</v>
       </c>
       <c r="K37" t="n">
-        <v>98.21408217520822</v>
+        <v>98.21408217520823</v>
       </c>
       <c r="L37" t="n">
         <v>125.680211259261</v>
@@ -33833,22 +33833,22 @@
         <v>119.4861149968809</v>
       </c>
       <c r="P37" t="n">
-        <v>102.2410132440508</v>
+        <v>102.2410132440509</v>
       </c>
       <c r="Q37" t="n">
         <v>70.78637800593452</v>
       </c>
       <c r="R37" t="n">
-        <v>38.00992569941939</v>
+        <v>38.0099256994194</v>
       </c>
       <c r="S37" t="n">
         <v>14.73211232628123</v>
       </c>
       <c r="T37" t="n">
-        <v>3.611941989229097</v>
+        <v>3.611941989229098</v>
       </c>
       <c r="U37" t="n">
-        <v>0.0461098977348396</v>
+        <v>0.04610989773483961</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33970,13 +33970,13 @@
         <v>9.738323401791071</v>
       </c>
       <c r="I39" t="n">
-        <v>27.22161917482968</v>
+        <v>34.71654800366026</v>
       </c>
       <c r="J39" t="n">
         <v>95.26486121615869</v>
       </c>
       <c r="K39" t="n">
-        <v>162.8228213822624</v>
+        <v>155.3278925534318</v>
       </c>
       <c r="L39" t="n">
         <v>218.9353769326371</v>
@@ -34207,7 +34207,7 @@
         <v>9.738323401791071</v>
       </c>
       <c r="I42" t="n">
-        <v>27.22161917482968</v>
+        <v>34.71654800366026</v>
       </c>
       <c r="J42" t="n">
         <v>95.26486121615869</v>
@@ -34228,7 +34228,7 @@
         <v>239.9068254209628</v>
       </c>
       <c r="P42" t="n">
-        <v>192.5463779596637</v>
+        <v>185.0514491308331</v>
       </c>
       <c r="Q42" t="n">
         <v>128.7121545348444</v>
@@ -34462,13 +34462,13 @@
         <v>262.2492458686688</v>
       </c>
       <c r="O45" t="n">
-        <v>232.4118965921323</v>
+        <v>239.9068254209628</v>
       </c>
       <c r="P45" t="n">
         <v>192.5463779596637</v>
       </c>
       <c r="Q45" t="n">
-        <v>128.7121545348444</v>
+        <v>121.2172257060138</v>
       </c>
       <c r="R45" t="n">
         <v>62.60477115156876</v>
@@ -35248,16 +35248,16 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>2.425583501655538</v>
+        <v>28.75252608797635</v>
       </c>
       <c r="J9" t="n">
-        <v>6.655986523460121</v>
+        <v>6.655986523460122</v>
       </c>
       <c r="K9" t="n">
-        <v>31.59535412864662</v>
+        <v>11.37614111852891</v>
       </c>
       <c r="L9" t="n">
-        <v>15.29662563687356</v>
+        <v>37.05102592411131</v>
       </c>
       <c r="M9" t="n">
         <v>17.85044062301152</v>
@@ -35269,7 +35269,7 @@
         <v>16.76186346679083</v>
       </c>
       <c r="P9" t="n">
-        <v>41.31500304752734</v>
+        <v>13.45287318408649</v>
       </c>
       <c r="Q9" t="n">
         <v>8.99288945632901</v>
@@ -35330,16 +35330,16 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>4.175752044673201</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="K10" t="n">
-        <v>41.31500304752735</v>
+        <v>6.862043349739423</v>
       </c>
       <c r="L10" t="n">
-        <v>41.31500304752735</v>
+        <v>40.31035483276455</v>
       </c>
       <c r="M10" t="n">
-        <v>13.13771170611251</v>
+        <v>9.258389161154682</v>
       </c>
       <c r="N10" t="n">
         <v>9.038245360419708</v>
@@ -35348,10 +35348,10 @@
         <v>8.348282472750284</v>
       </c>
       <c r="P10" t="n">
+        <v>7.143397865800722</v>
+      </c>
+      <c r="Q10" t="n">
         <v>41.31500304752734</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>4.945718411146316</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35409,22 +35409,22 @@
         <v>72.24182527314099</v>
       </c>
       <c r="J11" t="n">
-        <v>159.9495583954526</v>
+        <v>159.9495583954524</v>
       </c>
       <c r="K11" t="n">
-        <v>239.7229253891285</v>
+        <v>239.7229253891282</v>
       </c>
       <c r="L11" t="n">
-        <v>297.3974866963034</v>
+        <v>297.3974866963031</v>
       </c>
       <c r="M11" t="n">
-        <v>330.9120063106142</v>
+        <v>330.9120063106138</v>
       </c>
       <c r="N11" t="n">
-        <v>336.2665085305709</v>
+        <v>336.2665085305712</v>
       </c>
       <c r="O11" t="n">
-        <v>317.5269286098676</v>
+        <v>317.5269286098678</v>
       </c>
       <c r="P11" t="n">
         <v>271.0018873233957</v>
@@ -35485,22 +35485,22 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>34.71654800366026</v>
+        <v>34.71654800366025</v>
       </c>
       <c r="J12" t="n">
-        <v>87.76993238732811</v>
+        <v>95.26486121615866</v>
       </c>
       <c r="K12" t="n">
         <v>162.8228213822624</v>
       </c>
       <c r="L12" t="n">
-        <v>218.9353769326371</v>
+        <v>211.4404481038067</v>
       </c>
       <c r="M12" t="n">
         <v>255.4872583657901</v>
       </c>
       <c r="N12" t="n">
-        <v>262.2492458686688</v>
+        <v>262.2492458686687</v>
       </c>
       <c r="O12" t="n">
         <v>239.9068254209628</v>
@@ -35570,28 +35570,28 @@
         <v>147.2203398863885</v>
       </c>
       <c r="K13" t="n">
-        <v>98.21408217520823</v>
+        <v>375.7478746713048</v>
       </c>
       <c r="L13" t="n">
-        <v>125.6802112592611</v>
+        <v>125.680211259261</v>
       </c>
       <c r="M13" t="n">
-        <v>592.7148092945132</v>
+        <v>592.714809294513</v>
       </c>
       <c r="N13" t="n">
-        <v>576.0873818906931</v>
+        <v>129.3613180950924</v>
       </c>
       <c r="O13" t="n">
-        <v>447.2689739193038</v>
+        <v>543.3944475481753</v>
       </c>
       <c r="P13" t="n">
-        <v>102.2410132440509</v>
+        <v>175.3078109146829</v>
       </c>
       <c r="Q13" t="n">
         <v>240.6780697880881</v>
       </c>
       <c r="R13" t="n">
-        <v>16.80628261773756</v>
+        <v>16.80628261773755</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -35646,22 +35646,22 @@
         <v>72.24182527314099</v>
       </c>
       <c r="J14" t="n">
-        <v>159.9495583954524</v>
+        <v>159.9495583954526</v>
       </c>
       <c r="K14" t="n">
-        <v>239.7229253891282</v>
+        <v>239.7229253891285</v>
       </c>
       <c r="L14" t="n">
         <v>297.3974866963031</v>
       </c>
       <c r="M14" t="n">
-        <v>330.9120063106138</v>
+        <v>330.9120063106141</v>
       </c>
       <c r="N14" t="n">
-        <v>336.2665085305712</v>
+        <v>336.2665085305709</v>
       </c>
       <c r="O14" t="n">
-        <v>317.5269286098676</v>
+        <v>317.526928609868</v>
       </c>
       <c r="P14" t="n">
         <v>271.0018873233957</v>
@@ -35728,10 +35728,10 @@
         <v>95.26486121615869</v>
       </c>
       <c r="K15" t="n">
-        <v>155.327892553432</v>
+        <v>162.8228213822624</v>
       </c>
       <c r="L15" t="n">
-        <v>218.935376932637</v>
+        <v>218.9353769326372</v>
       </c>
       <c r="M15" t="n">
         <v>255.4872583657901</v>
@@ -35740,7 +35740,7 @@
         <v>262.2492458686687</v>
       </c>
       <c r="O15" t="n">
-        <v>239.9068254209628</v>
+        <v>232.4118965921323</v>
       </c>
       <c r="P15" t="n">
         <v>192.5463779596637</v>
@@ -35804,31 +35804,31 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>59.76611244730785</v>
+        <v>147.2203398863885</v>
       </c>
       <c r="K16" t="n">
-        <v>113.8346757729766</v>
+        <v>375.7478746713048</v>
       </c>
       <c r="L16" t="n">
         <v>548.1144352673025</v>
       </c>
       <c r="M16" t="n">
-        <v>592.7148092945132</v>
+        <v>132.5121611069731</v>
       </c>
       <c r="N16" t="n">
         <v>129.3613180950924</v>
       </c>
       <c r="O16" t="n">
-        <v>543.3944475481753</v>
+        <v>303.2126047817999</v>
       </c>
       <c r="P16" t="n">
-        <v>102.2410132440509</v>
+        <v>453.2580778605577</v>
       </c>
       <c r="Q16" t="n">
         <v>240.6780697880881</v>
       </c>
       <c r="R16" t="n">
-        <v>16.80628261773755</v>
+        <v>16.80628261773756</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>72.24182527314099</v>
       </c>
       <c r="J17" t="n">
-        <v>159.9495583954526</v>
+        <v>159.9495583954524</v>
       </c>
       <c r="K17" t="n">
-        <v>239.7229253891285</v>
+        <v>239.7229253891282</v>
       </c>
       <c r="L17" t="n">
-        <v>297.3974866963034</v>
+        <v>297.3974866963031</v>
       </c>
       <c r="M17" t="n">
-        <v>330.9120063106142</v>
+        <v>330.9120063106141</v>
       </c>
       <c r="N17" t="n">
         <v>336.2665085305709</v>
       </c>
       <c r="O17" t="n">
-        <v>317.5269286098676</v>
+        <v>317.526928609868</v>
       </c>
       <c r="P17" t="n">
-        <v>271.0018873233957</v>
+        <v>271.0018873233955</v>
       </c>
       <c r="Q17" t="n">
         <v>203.5111312293484</v>
       </c>
       <c r="R17" t="n">
-        <v>118.3809063174222</v>
+        <v>118.3809063174226</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35965,7 +35965,7 @@
         <v>95.26486121615869</v>
       </c>
       <c r="K18" t="n">
-        <v>155.3278925534318</v>
+        <v>162.8228213822624</v>
       </c>
       <c r="L18" t="n">
         <v>218.9353769326371</v>
@@ -35977,7 +35977,7 @@
         <v>262.2492458686688</v>
       </c>
       <c r="O18" t="n">
-        <v>239.9068254209628</v>
+        <v>232.4118965921323</v>
       </c>
       <c r="P18" t="n">
         <v>192.5463779596637</v>
@@ -36041,19 +36041,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>59.76611244730787</v>
+        <v>59.76611244730785</v>
       </c>
       <c r="K19" t="n">
-        <v>98.21408217520822</v>
+        <v>98.21408217520823</v>
       </c>
       <c r="L19" t="n">
         <v>548.1144352673025</v>
       </c>
       <c r="M19" t="n">
-        <v>257.3183382757747</v>
+        <v>132.5121611069731</v>
       </c>
       <c r="N19" t="n">
-        <v>129.3613180950924</v>
+        <v>424.0591870460476</v>
       </c>
       <c r="O19" t="n">
         <v>543.3944475481753</v>
@@ -36062,10 +36062,10 @@
         <v>453.2580778605577</v>
       </c>
       <c r="Q19" t="n">
-        <v>240.6780697880881</v>
+        <v>70.78637800593469</v>
       </c>
       <c r="R19" t="n">
-        <v>16.80628261773756</v>
+        <v>16.80628261773755</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36196,25 +36196,25 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>27.22161917482989</v>
+        <v>34.71654800366026</v>
       </c>
       <c r="J21" t="n">
-        <v>95.26486121615868</v>
+        <v>95.26486121615869</v>
       </c>
       <c r="K21" t="n">
         <v>162.8228213822624</v>
       </c>
       <c r="L21" t="n">
-        <v>218.935376932637</v>
+        <v>218.9353769326371</v>
       </c>
       <c r="M21" t="n">
         <v>255.4872583657901</v>
       </c>
       <c r="N21" t="n">
-        <v>262.2492458686687</v>
+        <v>262.2492458686688</v>
       </c>
       <c r="O21" t="n">
-        <v>239.9068254209628</v>
+        <v>232.4118965921323</v>
       </c>
       <c r="P21" t="n">
         <v>192.5463779596637</v>
@@ -36281,25 +36281,25 @@
         <v>59.76611244730785</v>
       </c>
       <c r="K22" t="n">
-        <v>375.7478746713048</v>
+        <v>356.6176354899178</v>
       </c>
       <c r="L22" t="n">
-        <v>548.1144352673026</v>
+        <v>548.1144352673025</v>
       </c>
       <c r="M22" t="n">
-        <v>132.5121611069731</v>
+        <v>592.7148092945132</v>
       </c>
       <c r="N22" t="n">
         <v>129.3613180950924</v>
       </c>
       <c r="O22" t="n">
-        <v>390.6668322208805</v>
+        <v>119.4861149968808</v>
       </c>
       <c r="P22" t="n">
         <v>453.2580778605577</v>
       </c>
       <c r="Q22" t="n">
-        <v>240.6780697880881</v>
+        <v>70.78637800593469</v>
       </c>
       <c r="R22" t="n">
         <v>16.80628261773755</v>
@@ -36357,7 +36357,7 @@
         <v>72.24182527314099</v>
       </c>
       <c r="J23" t="n">
-        <v>159.9495583954524</v>
+        <v>599.6007578428442</v>
       </c>
       <c r="K23" t="n">
         <v>239.7229253891282</v>
@@ -36366,22 +36366,22 @@
         <v>297.3974866963031</v>
       </c>
       <c r="M23" t="n">
-        <v>330.9120063106139</v>
+        <v>330.9120063106141</v>
       </c>
       <c r="N23" t="n">
-        <v>336.2665085305709</v>
+        <v>336.2665085305712</v>
       </c>
       <c r="O23" t="n">
-        <v>748.3478521127413</v>
+        <v>317.5269286098678</v>
       </c>
       <c r="P23" t="n">
         <v>271.0018873233957</v>
       </c>
       <c r="Q23" t="n">
-        <v>388.9341752491569</v>
+        <v>209.2412076348837</v>
       </c>
       <c r="R23" t="n">
-        <v>118.3809063174226</v>
+        <v>289.2435979871771</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,10 +36436,10 @@
         <v>34.71654800366025</v>
       </c>
       <c r="J24" t="n">
-        <v>87.76993238732831</v>
+        <v>95.26486121615869</v>
       </c>
       <c r="K24" t="n">
-        <v>162.8228213822624</v>
+        <v>155.327892553432</v>
       </c>
       <c r="L24" t="n">
         <v>218.935376932637</v>
@@ -36518,22 +36518,22 @@
         <v>147.2203398863886</v>
       </c>
       <c r="K25" t="n">
-        <v>375.7478746713047</v>
+        <v>98.2140821752082</v>
       </c>
       <c r="L25" t="n">
         <v>548.1144352673025</v>
       </c>
       <c r="M25" t="n">
-        <v>132.5121611069731</v>
+        <v>596.6372794715317</v>
       </c>
       <c r="N25" t="n">
-        <v>505.4234428513989</v>
+        <v>576.087381890693</v>
       </c>
       <c r="O25" t="n">
         <v>543.3944475481753</v>
       </c>
       <c r="P25" t="n">
-        <v>453.2580778605575</v>
+        <v>196.0028129528014</v>
       </c>
       <c r="Q25" t="n">
         <v>240.6780697880881</v>
@@ -36594,28 +36594,28 @@
         <v>72.24182527314099</v>
       </c>
       <c r="J26" t="n">
-        <v>159.9495583954524</v>
+        <v>599.6007578428442</v>
       </c>
       <c r="K26" t="n">
-        <v>239.7229253891282</v>
+        <v>416.315693464418</v>
       </c>
       <c r="L26" t="n">
         <v>297.3974866963031</v>
       </c>
       <c r="M26" t="n">
-        <v>330.9120063106139</v>
+        <v>330.9120063106141</v>
       </c>
       <c r="N26" t="n">
-        <v>336.2665085305709</v>
+        <v>336.2665085305712</v>
       </c>
       <c r="O26" t="n">
-        <v>748.3478521127413</v>
+        <v>317.5269286098678</v>
       </c>
       <c r="P26" t="n">
         <v>271.0018873233957</v>
       </c>
       <c r="Q26" t="n">
-        <v>388.9341752491569</v>
+        <v>203.5111312293484</v>
       </c>
       <c r="R26" t="n">
         <v>118.3809063174226</v>
@@ -36685,7 +36685,7 @@
         <v>255.4872583657901</v>
       </c>
       <c r="N27" t="n">
-        <v>262.2492458686686</v>
+        <v>254.7543170398383</v>
       </c>
       <c r="O27" t="n">
         <v>239.9068254209628</v>
@@ -36694,7 +36694,7 @@
         <v>192.5463779596637</v>
       </c>
       <c r="Q27" t="n">
-        <v>121.217225706014</v>
+        <v>128.7121545348443</v>
       </c>
       <c r="R27" t="n">
         <v>62.60477115156868</v>
@@ -36755,13 +36755,13 @@
         <v>147.2203398863886</v>
       </c>
       <c r="K28" t="n">
-        <v>98.2140821752082</v>
+        <v>305.0839356320107</v>
       </c>
       <c r="L28" t="n">
-        <v>460.7508621416998</v>
+        <v>548.1144352673025</v>
       </c>
       <c r="M28" t="n">
-        <v>596.6372794715317</v>
+        <v>132.5121611069731</v>
       </c>
       <c r="N28" t="n">
         <v>576.087381890693</v>
@@ -36773,7 +36773,7 @@
         <v>453.2580778605575</v>
       </c>
       <c r="Q28" t="n">
-        <v>70.78637800593469</v>
+        <v>240.6780697880881</v>
       </c>
       <c r="R28" t="n">
         <v>16.80628261773755</v>
@@ -36831,19 +36831,19 @@
         <v>72.24182527314099</v>
       </c>
       <c r="J29" t="n">
-        <v>159.9495583954524</v>
+        <v>599.6007578428442</v>
       </c>
       <c r="K29" t="n">
-        <v>239.7229253891282</v>
+        <v>245.4530017946636</v>
       </c>
       <c r="L29" t="n">
         <v>297.3974866963031</v>
       </c>
       <c r="M29" t="n">
-        <v>535.0746302511253</v>
+        <v>330.9120063106141</v>
       </c>
       <c r="N29" t="n">
-        <v>748.3478521127415</v>
+        <v>336.2665085305712</v>
       </c>
       <c r="O29" t="n">
         <v>317.5269286098678</v>
@@ -36855,7 +36855,7 @@
         <v>203.5111312293484</v>
       </c>
       <c r="R29" t="n">
-        <v>118.3809063174226</v>
+        <v>289.2435979871771</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,22 +36907,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>27.22161917482988</v>
+        <v>34.71654800366025</v>
       </c>
       <c r="J30" t="n">
-        <v>95.26486121615868</v>
+        <v>95.26486121615869</v>
       </c>
       <c r="K30" t="n">
         <v>162.8228213822624</v>
       </c>
       <c r="L30" t="n">
-        <v>218.935376932637</v>
+        <v>218.9353769326371</v>
       </c>
       <c r="M30" t="n">
         <v>255.4872583657901</v>
       </c>
       <c r="N30" t="n">
-        <v>262.2492458686687</v>
+        <v>262.2492458686686</v>
       </c>
       <c r="O30" t="n">
         <v>239.9068254209628</v>
@@ -36931,7 +36931,7 @@
         <v>192.5463779596637</v>
       </c>
       <c r="Q30" t="n">
-        <v>128.7121545348443</v>
+        <v>121.217225706014</v>
       </c>
       <c r="R30" t="n">
         <v>62.60477115156868</v>
@@ -36992,22 +36992,22 @@
         <v>147.2203398863886</v>
       </c>
       <c r="K31" t="n">
-        <v>375.7478746713047</v>
+        <v>191.9758818839586</v>
       </c>
       <c r="L31" t="n">
         <v>548.1144352673025</v>
       </c>
       <c r="M31" t="n">
-        <v>132.5121611069731</v>
+        <v>596.6372794715317</v>
       </c>
       <c r="N31" t="n">
-        <v>576.0873818906932</v>
+        <v>576.087381890693</v>
       </c>
       <c r="O31" t="n">
         <v>543.3944475481753</v>
       </c>
       <c r="P31" t="n">
-        <v>382.5941388212632</v>
+        <v>102.2410132440509</v>
       </c>
       <c r="Q31" t="n">
         <v>240.6780697880881</v>
@@ -37068,22 +37068,22 @@
         <v>72.24182527314099</v>
       </c>
       <c r="J32" t="n">
-        <v>159.9495583954524</v>
+        <v>599.6007578428442</v>
       </c>
       <c r="K32" t="n">
-        <v>239.7229253891282</v>
+        <v>245.4530017946636</v>
       </c>
       <c r="L32" t="n">
         <v>297.3974866963031</v>
       </c>
       <c r="M32" t="n">
-        <v>330.9120063106139</v>
+        <v>330.9120063106141</v>
       </c>
       <c r="N32" t="n">
-        <v>748.3478521127415</v>
+        <v>336.2665085305712</v>
       </c>
       <c r="O32" t="n">
-        <v>521.6895525503792</v>
+        <v>317.5269286098678</v>
       </c>
       <c r="P32" t="n">
         <v>271.0018873233957</v>
@@ -37092,7 +37092,7 @@
         <v>203.5111312293484</v>
       </c>
       <c r="R32" t="n">
-        <v>118.3809063174226</v>
+        <v>289.2435979871771</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,10 +37144,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>27.22161917482988</v>
+        <v>34.71654800366025</v>
       </c>
       <c r="J33" t="n">
-        <v>95.26486121615868</v>
+        <v>87.76993238732831</v>
       </c>
       <c r="K33" t="n">
         <v>162.8228213822624</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>59.76611244730786</v>
+        <v>147.2203398863886</v>
       </c>
       <c r="K34" t="n">
-        <v>375.7478746713048</v>
+        <v>98.2140821752082</v>
       </c>
       <c r="L34" t="n">
         <v>548.1144352673025</v>
@@ -37238,13 +37238,13 @@
         <v>596.6372794715317</v>
       </c>
       <c r="N34" t="n">
-        <v>129.3613180950924</v>
+        <v>576.087381890693</v>
       </c>
       <c r="O34" t="n">
-        <v>542.7856813790038</v>
+        <v>543.3944475481753</v>
       </c>
       <c r="P34" t="n">
-        <v>453.2580778605575</v>
+        <v>196.0028129528014</v>
       </c>
       <c r="Q34" t="n">
         <v>240.6780697880881</v>
@@ -37314,13 +37314,13 @@
         <v>297.3974866963031</v>
       </c>
       <c r="M35" t="n">
-        <v>330.9120063106141</v>
+        <v>330.9120063106139</v>
       </c>
       <c r="N35" t="n">
-        <v>336.2665085305709</v>
+        <v>336.2665085305712</v>
       </c>
       <c r="O35" t="n">
-        <v>317.5269286098676</v>
+        <v>317.5269286098678</v>
       </c>
       <c r="P35" t="n">
         <v>271.0018873233957</v>
@@ -37329,7 +37329,7 @@
         <v>203.5111312293484</v>
       </c>
       <c r="R35" t="n">
-        <v>118.3809063174222</v>
+        <v>118.3809063174226</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,22 +37381,22 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>27.22161917482989</v>
+        <v>34.71654800366026</v>
       </c>
       <c r="J36" t="n">
-        <v>95.26486121615868</v>
+        <v>87.76993238732811</v>
       </c>
       <c r="K36" t="n">
         <v>162.8228213822624</v>
       </c>
       <c r="L36" t="n">
-        <v>218.935376932637</v>
+        <v>218.9353769326371</v>
       </c>
       <c r="M36" t="n">
         <v>255.4872583657901</v>
       </c>
       <c r="N36" t="n">
-        <v>262.2492458686687</v>
+        <v>262.2492458686688</v>
       </c>
       <c r="O36" t="n">
         <v>239.9068254209628</v>
@@ -37463,31 +37463,31 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>59.76611244730785</v>
+        <v>59.76611244730787</v>
       </c>
       <c r="K37" t="n">
-        <v>375.7478746713048</v>
+        <v>98.21408217520822</v>
       </c>
       <c r="L37" t="n">
-        <v>548.1144352673026</v>
+        <v>125.6802112592611</v>
       </c>
       <c r="M37" t="n">
-        <v>592.7148092945131</v>
+        <v>402.918190270369</v>
       </c>
       <c r="N37" t="n">
-        <v>129.3613180950924</v>
+        <v>576.0873818906931</v>
       </c>
       <c r="O37" t="n">
-        <v>281.4812486498472</v>
+        <v>543.3944475481753</v>
       </c>
       <c r="P37" t="n">
-        <v>102.2410132440509</v>
+        <v>453.2580778605577</v>
       </c>
       <c r="Q37" t="n">
-        <v>240.6780697880881</v>
+        <v>70.78637800593469</v>
       </c>
       <c r="R37" t="n">
-        <v>16.80628261773755</v>
+        <v>16.80628261773756</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37557,10 +37557,10 @@
         <v>336.2665085305712</v>
       </c>
       <c r="O38" t="n">
-        <v>317.526928609868</v>
+        <v>317.5269286098678</v>
       </c>
       <c r="P38" t="n">
-        <v>271.0018873233955</v>
+        <v>271.0018873233957</v>
       </c>
       <c r="Q38" t="n">
         <v>203.5111312293484</v>
@@ -37618,13 +37618,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>27.22161917482968</v>
+        <v>34.71654800366026</v>
       </c>
       <c r="J39" t="n">
         <v>95.26486121615869</v>
       </c>
       <c r="K39" t="n">
-        <v>162.8228213822624</v>
+        <v>155.3278925534318</v>
       </c>
       <c r="L39" t="n">
         <v>218.9353769326371</v>
@@ -37703,22 +37703,22 @@
         <v>59.76611244730787</v>
       </c>
       <c r="K40" t="n">
-        <v>375.7478746713048</v>
+        <v>98.21408217520822</v>
       </c>
       <c r="L40" t="n">
         <v>548.1144352673025</v>
       </c>
       <c r="M40" t="n">
-        <v>149.6762375618316</v>
+        <v>592.7148092945133</v>
       </c>
       <c r="N40" t="n">
-        <v>129.3613180950924</v>
+        <v>576.087381890693</v>
       </c>
       <c r="O40" t="n">
-        <v>543.3944475481753</v>
+        <v>282.1806691324964</v>
       </c>
       <c r="P40" t="n">
-        <v>453.2580778605577</v>
+        <v>102.2410132440509</v>
       </c>
       <c r="Q40" t="n">
         <v>70.78637800593469</v>
@@ -37782,22 +37782,22 @@
         <v>159.9495583954524</v>
       </c>
       <c r="K41" t="n">
-        <v>239.7229253891281</v>
+        <v>239.7229253891282</v>
       </c>
       <c r="L41" t="n">
         <v>297.3974866963031</v>
       </c>
       <c r="M41" t="n">
-        <v>330.9120063106141</v>
+        <v>330.9120063106139</v>
       </c>
       <c r="N41" t="n">
         <v>336.2665085305712</v>
       </c>
       <c r="O41" t="n">
-        <v>317.526928609868</v>
+        <v>317.5269286098678</v>
       </c>
       <c r="P41" t="n">
-        <v>271.0018873233955</v>
+        <v>271.0018873233957</v>
       </c>
       <c r="Q41" t="n">
         <v>203.5111312293484</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>27.22161917482968</v>
+        <v>34.71654800366026</v>
       </c>
       <c r="J42" t="n">
         <v>95.26486121615869</v>
@@ -37864,19 +37864,19 @@
         <v>162.8228213822624</v>
       </c>
       <c r="L42" t="n">
-        <v>218.9353769326371</v>
+        <v>218.9353769326372</v>
       </c>
       <c r="M42" t="n">
         <v>255.4872583657901</v>
       </c>
       <c r="N42" t="n">
-        <v>262.2492458686688</v>
+        <v>262.2492458686687</v>
       </c>
       <c r="O42" t="n">
         <v>239.9068254209628</v>
       </c>
       <c r="P42" t="n">
-        <v>192.5463779596637</v>
+        <v>185.0514491308331</v>
       </c>
       <c r="Q42" t="n">
         <v>128.7121545348443</v>
@@ -37946,10 +37946,10 @@
         <v>125.6802112592611</v>
       </c>
       <c r="M43" t="n">
-        <v>592.7148092945132</v>
+        <v>402.918190270369</v>
       </c>
       <c r="N43" t="n">
-        <v>216.3990710843955</v>
+        <v>576.0873818906931</v>
       </c>
       <c r="O43" t="n">
         <v>543.3944475481753</v>
@@ -37958,7 +37958,7 @@
         <v>453.2580778605577</v>
       </c>
       <c r="Q43" t="n">
-        <v>240.6780697880881</v>
+        <v>70.78637800593469</v>
       </c>
       <c r="R43" t="n">
         <v>16.80628261773756</v>
@@ -38110,13 +38110,13 @@
         <v>262.2492458686687</v>
       </c>
       <c r="O45" t="n">
-        <v>232.4118965921323</v>
+        <v>239.9068254209628</v>
       </c>
       <c r="P45" t="n">
         <v>192.5463779596637</v>
       </c>
       <c r="Q45" t="n">
-        <v>128.7121545348443</v>
+        <v>121.2172257060138</v>
       </c>
       <c r="R45" t="n">
         <v>62.60477115156868</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>147.2203398863885</v>
+        <v>59.76611244730787</v>
       </c>
       <c r="K46" t="n">
-        <v>375.7478746713048</v>
+        <v>98.21408217520822</v>
       </c>
       <c r="L46" t="n">
-        <v>548.1144352673025</v>
+        <v>286.9006568516238</v>
       </c>
       <c r="M46" t="n">
-        <v>316.2386508918919</v>
+        <v>592.7148092945132</v>
       </c>
       <c r="N46" t="n">
-        <v>129.3613180950924</v>
+        <v>576.087381890693</v>
       </c>
       <c r="O46" t="n">
-        <v>119.486114996881</v>
+        <v>543.3944475481753</v>
       </c>
       <c r="P46" t="n">
-        <v>453.2580778605577</v>
+        <v>102.2410132440509</v>
       </c>
       <c r="Q46" t="n">
-        <v>240.6780697880881</v>
+        <v>70.78637800593469</v>
       </c>
       <c r="R46" t="n">
         <v>16.80628261773756</v>
